--- a/data/nzd0507/nzd0507.xlsx
+++ b/data/nzd0507/nzd0507.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I313"/>
+  <dimension ref="A1:I314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10170,6 +10170,39 @@
       <c r="I313" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>334.7242857142857</v>
+      </c>
+      <c r="C314" t="n">
+        <v>345.2891304347826</v>
+      </c>
+      <c r="D314" t="n">
+        <v>342.5033333333333</v>
+      </c>
+      <c r="E314" t="n">
+        <v>359.8485714285715</v>
+      </c>
+      <c r="F314" t="n">
+        <v>359.4785714285715</v>
+      </c>
+      <c r="G314" t="n">
+        <v>353.28</v>
+      </c>
+      <c r="H314" t="n">
+        <v>354.9833333333333</v>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10184,7 +10217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B331"/>
+  <dimension ref="A1:B332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13502,6 +13535,16 @@
       </c>
       <c r="B331" t="n">
         <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -13670,28 +13713,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0236958760959198</v>
+        <v>0.02558228054900539</v>
       </c>
       <c r="J2" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K2" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002379512412926665</v>
+        <v>0.0002792171749722572</v>
       </c>
       <c r="M2" t="n">
-        <v>8.549469623814746</v>
+        <v>8.528523094356421</v>
       </c>
       <c r="N2" t="n">
-        <v>117.845935732804</v>
+        <v>117.4332921243441</v>
       </c>
       <c r="O2" t="n">
-        <v>10.85568679231323</v>
+        <v>10.83666425263531</v>
       </c>
       <c r="P2" t="n">
-        <v>331.4898588249804</v>
+        <v>331.4697819028402</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -13741,28 +13784,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.06115236921097382</v>
+        <v>-0.05138920949576534</v>
       </c>
       <c r="J3" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K3" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001476524134244817</v>
+        <v>0.00104514296649183</v>
       </c>
       <c r="M3" t="n">
-        <v>8.970454721132699</v>
+        <v>8.986310851677992</v>
       </c>
       <c r="N3" t="n">
-        <v>127.5111446967516</v>
+        <v>127.7141174540972</v>
       </c>
       <c r="O3" t="n">
-        <v>11.29208327531955</v>
+        <v>11.30106709360214</v>
       </c>
       <c r="P3" t="n">
-        <v>333.2497938633181</v>
+        <v>333.1475178075833</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -13818,28 +13861,28 @@
         <v>0.052</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06281871267117881</v>
+        <v>-0.05410197718452163</v>
       </c>
       <c r="J4" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K4" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001014410231492735</v>
+        <v>0.000755863084777042</v>
       </c>
       <c r="M4" t="n">
-        <v>11.28307979252945</v>
+        <v>11.28886330573748</v>
       </c>
       <c r="N4" t="n">
-        <v>195.3907326142272</v>
+        <v>195.2123857335598</v>
       </c>
       <c r="O4" t="n">
-        <v>13.97822351424626</v>
+        <v>13.97184260337769</v>
       </c>
       <c r="P4" t="n">
-        <v>331.9201085828469</v>
+        <v>331.8282415990894</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -13895,28 +13938,28 @@
         <v>0.0403</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07295253251149249</v>
+        <v>-0.0615790858528954</v>
       </c>
       <c r="J5" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K5" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001801723797688393</v>
+        <v>0.001285981562892724</v>
       </c>
       <c r="M5" t="n">
-        <v>9.707250821111741</v>
+        <v>9.732344315415151</v>
       </c>
       <c r="N5" t="n">
-        <v>148.1585810183165</v>
+        <v>148.4953042634601</v>
       </c>
       <c r="O5" t="n">
-        <v>12.17204095533352</v>
+        <v>12.18586493702684</v>
       </c>
       <c r="P5" t="n">
-        <v>346.2047573081476</v>
+        <v>346.084987654183</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -13972,28 +14015,28 @@
         <v>0.0374</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09676631139442141</v>
+        <v>-0.08409325322733535</v>
       </c>
       <c r="J6" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K6" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003010053105749866</v>
+        <v>0.002274241803346899</v>
       </c>
       <c r="M6" t="n">
-        <v>9.600933393721327</v>
+        <v>9.637457124687929</v>
       </c>
       <c r="N6" t="n">
-        <v>154.4547480700609</v>
+        <v>155.0198659489253</v>
       </c>
       <c r="O6" t="n">
-        <v>12.42798246176993</v>
+        <v>12.45069740813442</v>
       </c>
       <c r="P6" t="n">
-        <v>344.3125832594557</v>
+        <v>344.1778895162705</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -14049,28 +14092,28 @@
         <v>0.044</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3071234212174937</v>
+        <v>-0.2949311955597252</v>
       </c>
       <c r="J7" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K7" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02610804227714314</v>
+        <v>0.02414804904318946</v>
       </c>
       <c r="M7" t="n">
-        <v>10.42549064637804</v>
+        <v>10.44615766154916</v>
       </c>
       <c r="N7" t="n">
-        <v>178.0015341205024</v>
+        <v>178.4136254832806</v>
       </c>
       <c r="O7" t="n">
-        <v>13.34172155759902</v>
+        <v>13.35715633970347</v>
       </c>
       <c r="P7" t="n">
-        <v>344.0229684025533</v>
+        <v>343.8944276658701</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -14126,28 +14169,28 @@
         <v>0.0496</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3077757043582751</v>
+        <v>-0.2991947257717874</v>
       </c>
       <c r="J8" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K8" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03631258292730621</v>
+        <v>0.03446898148261179</v>
       </c>
       <c r="M8" t="n">
-        <v>8.546816521508678</v>
+        <v>8.558979472424706</v>
       </c>
       <c r="N8" t="n">
-        <v>126.4945917017296</v>
+        <v>126.564817710909</v>
       </c>
       <c r="O8" t="n">
-        <v>11.24698144844783</v>
+        <v>11.25010300890214</v>
       </c>
       <c r="P8" t="n">
-        <v>350.7114868162622</v>
+        <v>350.6201255541654</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -14184,7 +14227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I313"/>
+  <dimension ref="A1:I314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27691,6 +27734,53 @@
         </is>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:14:45+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-45.862164915406254,170.74108063879189</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-45.86276944129335,170.74135731977717</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-45.86339002901388,170.74146388081516</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-45.86395014257574,170.74185511009983</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-45.86449459636822,170.74221980885147</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-45.8650676149309,170.742550265713</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-45.86558561061139,170.7430411379777</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0507/nzd0507.xlsx
+++ b/data/nzd0507/nzd0507.xlsx
@@ -13558,7 +13558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13649,35 +13649,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -13736,27 +13741,28 @@
       <c r="P2" t="n">
         <v>331.4697819028402</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.73681181500245 -45.86258261843972, 170.7480209585943 -45.86148545195832)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.7368118150025</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.86258261843972</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.7480209585943</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.86148545195832</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.7424163867984</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.86203403519902</v>
       </c>
     </row>
@@ -13807,27 +13813,28 @@
       <c r="P3" t="n">
         <v>333.1475178075833</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.73695371235598 -45.86320033372943, 170.74816293972756 -45.86210316373669)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.736953712356</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.86320033372943</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.7481629397276</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.86210316373669</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.7425583260418</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.86265174873306</v>
       </c>
     </row>
@@ -13884,27 +13891,28 @@
       <c r="P4" t="n">
         <v>331.8282415990894</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.73710908609283 -45.86387937827544, 170.74828409049894 -45.8626232879517)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.7371090860928</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.86387937827544</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.7482840904989</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.8626232879517</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.7426965882959</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.86325133311357</v>
       </c>
     </row>
@@ -13961,27 +13969,28 @@
       <c r="P5" t="n">
         <v>346.084987654183</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.73742607764837 -45.86490282498245, 170.74824288037104 -45.862575773837854)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.7374260776484</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.86490282498245</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.748242880371</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.86257577383785</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.7428344790097</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.86373929941016</v>
       </c>
     </row>
@@ -14038,27 +14047,28 @@
       <c r="P6" t="n">
         <v>344.1778895162705</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.73801942324894 -45.8658545000877, 170.7482872486757 -45.862529826381255)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.7380194232489</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.8658545000877</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.7482872486757</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.86252982638126</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.7431533359623</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.86419216323448</v>
       </c>
     </row>
@@ -14115,27 +14125,28 @@
       <c r="P7" t="n">
         <v>343.8944276658701</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.73854534676371 -45.86657582318393, 170.7485065398364 -45.8628241315436)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.7385453467637</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.86657582318393</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.7485065398364</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.8628241315436</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.7435259433001</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.86469997736376</v>
       </c>
     </row>
@@ -14192,27 +14203,28 @@
       <c r="P8" t="n">
         <v>350.6201255541654</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.73911451032149 -45.86722133186062, 170.7488336734591 -45.863172177336146)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.7391145103215</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.86722133186062</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.7488336734591</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.86317217733615</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.7439740918903</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.86519675459839</v>
       </c>
     </row>

--- a/data/nzd0507/nzd0507.xlsx
+++ b/data/nzd0507/nzd0507.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I314"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10201,6 +10201,105 @@
         <v>354.9833333333333</v>
       </c>
       <c r="I314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>329.34</v>
+      </c>
+      <c r="C315" t="n">
+        <v>338.0078260869565</v>
+      </c>
+      <c r="D315" t="n">
+        <v>335.4133333333333</v>
+      </c>
+      <c r="E315" t="n">
+        <v>351.08</v>
+      </c>
+      <c r="F315" t="n">
+        <v>348.29</v>
+      </c>
+      <c r="G315" t="n">
+        <v>346.14</v>
+      </c>
+      <c r="H315" t="n">
+        <v>351.5033333333333</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>326.49</v>
+      </c>
+      <c r="C316" t="n">
+        <v>322.9395652173913</v>
+      </c>
+      <c r="D316" t="n">
+        <v>316.0522222222222</v>
+      </c>
+      <c r="E316" t="n">
+        <v>331.35</v>
+      </c>
+      <c r="F316" t="n">
+        <v>332.04</v>
+      </c>
+      <c r="G316" t="n">
+        <v>323.08</v>
+      </c>
+      <c r="H316" t="n">
+        <v>339.1622222222222</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>343.69</v>
+      </c>
+      <c r="C317" t="n">
+        <v>342.7408695652174</v>
+      </c>
+      <c r="D317" t="n">
+        <v>346.3155555555555</v>
+      </c>
+      <c r="E317" t="n">
+        <v>353.24</v>
+      </c>
+      <c r="F317" t="n">
+        <v>353.34</v>
+      </c>
+      <c r="G317" t="n">
+        <v>353.91</v>
+      </c>
+      <c r="H317" t="n">
+        <v>350.8255555555555</v>
+      </c>
+      <c r="I317" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10217,7 +10316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B332"/>
+  <dimension ref="A1:B335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13545,6 +13644,36 @@
       </c>
       <c r="B332" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -13718,28 +13847,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02558228054900539</v>
+        <v>0.02781987722862746</v>
       </c>
       <c r="J2" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K2" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002792171749722572</v>
+        <v>0.0003352786918733308</v>
       </c>
       <c r="M2" t="n">
-        <v>8.528523094356421</v>
+        <v>8.50925919599935</v>
       </c>
       <c r="N2" t="n">
-        <v>117.4332921243441</v>
+        <v>116.7745992818849</v>
       </c>
       <c r="O2" t="n">
-        <v>10.83666425263531</v>
+        <v>10.8062296515429</v>
       </c>
       <c r="P2" t="n">
-        <v>331.4697819028402</v>
+        <v>331.4456944172198</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13790,28 +13919,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.05138920949576534</v>
+        <v>-0.04563373382644188</v>
       </c>
       <c r="J3" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K3" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00104514296649183</v>
+        <v>0.0008364451315633348</v>
       </c>
       <c r="M3" t="n">
-        <v>8.986310851677992</v>
+        <v>8.982035602618469</v>
       </c>
       <c r="N3" t="n">
-        <v>127.7141174540972</v>
+        <v>127.1792186550819</v>
       </c>
       <c r="O3" t="n">
-        <v>11.30106709360214</v>
+        <v>11.27737640832662</v>
       </c>
       <c r="P3" t="n">
-        <v>333.1475178075833</v>
+        <v>333.0869151904073</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13868,28 +13997,28 @@
         <v>0.052</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05410197718452163</v>
+        <v>-0.04957335622684876</v>
       </c>
       <c r="J4" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K4" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000755863084777042</v>
+        <v>0.0006423474096411974</v>
       </c>
       <c r="M4" t="n">
-        <v>11.28886330573748</v>
+        <v>11.29502335772858</v>
       </c>
       <c r="N4" t="n">
-        <v>195.2123857335598</v>
+        <v>194.8402947229188</v>
       </c>
       <c r="O4" t="n">
-        <v>13.97184260337769</v>
+        <v>13.9585205062327</v>
       </c>
       <c r="P4" t="n">
-        <v>331.8282415990894</v>
+        <v>331.7802082893958</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13946,28 +14075,28 @@
         <v>0.0403</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0615790858528954</v>
+        <v>-0.06004732361181588</v>
       </c>
       <c r="J5" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K5" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001285981562892724</v>
+        <v>0.001240403059443729</v>
       </c>
       <c r="M5" t="n">
-        <v>9.732344315415151</v>
+        <v>9.729961121311188</v>
       </c>
       <c r="N5" t="n">
-        <v>148.4953042634601</v>
+        <v>147.9266190068623</v>
       </c>
       <c r="O5" t="n">
-        <v>12.18586493702684</v>
+        <v>12.1625087464249</v>
       </c>
       <c r="P5" t="n">
-        <v>346.084987654183</v>
+        <v>346.0688070821607</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14024,28 +14153,28 @@
         <v>0.0374</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08409325322733535</v>
+        <v>-0.07874955937690621</v>
       </c>
       <c r="J6" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K6" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002274241803346899</v>
+        <v>0.002024333447469551</v>
       </c>
       <c r="M6" t="n">
-        <v>9.637457124687929</v>
+        <v>9.635135248881642</v>
       </c>
       <c r="N6" t="n">
-        <v>155.0198659489253</v>
+        <v>154.2947357506194</v>
       </c>
       <c r="O6" t="n">
-        <v>12.45069740813442</v>
+        <v>12.42154321131716</v>
       </c>
       <c r="P6" t="n">
-        <v>344.1778895162705</v>
+        <v>344.1207988121349</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14102,28 +14231,28 @@
         <v>0.044</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2949311955597252</v>
+        <v>-0.2850836567165734</v>
       </c>
       <c r="J7" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K7" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02414804904318946</v>
+        <v>0.02279478251933842</v>
       </c>
       <c r="M7" t="n">
-        <v>10.44615766154916</v>
+        <v>10.47689022607681</v>
       </c>
       <c r="N7" t="n">
-        <v>178.4136254832806</v>
+        <v>178.5722344198825</v>
       </c>
       <c r="O7" t="n">
-        <v>13.35715633970347</v>
+        <v>13.36309224767541</v>
       </c>
       <c r="P7" t="n">
-        <v>343.8944276658701</v>
+        <v>343.7900515444265</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14180,28 +14309,28 @@
         <v>0.0496</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2991947257717874</v>
+        <v>-0.2904606037278507</v>
       </c>
       <c r="J8" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K8" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03446898148261179</v>
+        <v>0.03305826177487237</v>
       </c>
       <c r="M8" t="n">
-        <v>8.558979472424706</v>
+        <v>8.537316102305139</v>
       </c>
       <c r="N8" t="n">
-        <v>126.564817710909</v>
+        <v>125.7081327393909</v>
       </c>
       <c r="O8" t="n">
-        <v>11.25010300890214</v>
+        <v>11.21196382171254</v>
       </c>
       <c r="P8" t="n">
-        <v>350.6201255541654</v>
+        <v>350.5266899229389</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14239,7 +14368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I314"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27793,6 +27922,147 @@
         </is>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-45.86217163573862,170.7410119720883</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-45.86277852952863,170.74126445909013</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-45.86340016050049,170.7413737349755</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-45.863973359039434,170.7417471878564</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-45.8645369250102,170.74208907719702</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-45.8650980981558,170.74246932601537</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-45.865601646718474,170.74300264526119</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-45.862175192915494,170.7409756255517</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-45.862797336892484,170.74107228889306</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-45.86342782682563,170.74112756788026</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-45.86402559759452,170.74150435370143</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-45.86459840179249,170.74189920548142</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-45.86519654917542,170.74220791513724</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-45.86565851539736,170.74286613850714</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-45.86215372486397,170.74119498002455</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-45.86277262194016,170.74132482103502</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-45.863384581384985,170.74151235132075</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-45.86396764003748,170.7417737728159</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>-45.86451781985183,170.74214808340065</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-45.86506492523174,170.74255740744687</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-45.865604769968925,170.74299514827362</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0507/nzd0507.xlsx
+++ b/data/nzd0507/nzd0507.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:I319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10300,6 +10300,72 @@
         <v>350.8255555555555</v>
       </c>
       <c r="I317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>334.8228571428572</v>
+      </c>
+      <c r="C318" t="n">
+        <v>339.5630434782609</v>
+      </c>
+      <c r="D318" t="n">
+        <v>344.1466666666667</v>
+      </c>
+      <c r="E318" t="n">
+        <v>359.2057142857143</v>
+      </c>
+      <c r="F318" t="n">
+        <v>357.0057142857143</v>
+      </c>
+      <c r="G318" t="n">
+        <v>347.58</v>
+      </c>
+      <c r="H318" t="n">
+        <v>353.3666666666667</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>340.06</v>
+      </c>
+      <c r="C319" t="n">
+        <v>342.1760869565218</v>
+      </c>
+      <c r="D319" t="n">
+        <v>334.4844444444445</v>
+      </c>
+      <c r="E319" t="n">
+        <v>340.02</v>
+      </c>
+      <c r="F319" t="n">
+        <v>340.41</v>
+      </c>
+      <c r="G319" t="n">
+        <v>334.85</v>
+      </c>
+      <c r="H319" t="n">
+        <v>351.9644444444444</v>
+      </c>
+      <c r="I319" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10316,7 +10382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13674,6 +13740,26 @@
       </c>
       <c r="B335" t="n">
         <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -13847,28 +13933,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02781987722862746</v>
+        <v>0.03518713436118081</v>
       </c>
       <c r="J2" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K2" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003352786918733308</v>
+        <v>0.0005425055648144994</v>
       </c>
       <c r="M2" t="n">
-        <v>8.50925919599935</v>
+        <v>8.489234904631893</v>
       </c>
       <c r="N2" t="n">
-        <v>116.7745992818849</v>
+        <v>116.1714933511343</v>
       </c>
       <c r="O2" t="n">
-        <v>10.8062296515429</v>
+        <v>10.77828805289292</v>
       </c>
       <c r="P2" t="n">
-        <v>331.4456944172198</v>
+        <v>331.3663174566009</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13919,28 +14005,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.04563373382644188</v>
+        <v>-0.03315312261213735</v>
       </c>
       <c r="J3" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K3" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008364451315633348</v>
+        <v>0.0004458799326499951</v>
       </c>
       <c r="M3" t="n">
-        <v>8.982035602618469</v>
+        <v>8.978942993804267</v>
       </c>
       <c r="N3" t="n">
-        <v>127.1792186550819</v>
+        <v>126.8415219556911</v>
       </c>
       <c r="O3" t="n">
-        <v>11.27737640832662</v>
+        <v>11.26239414847887</v>
       </c>
       <c r="P3" t="n">
-        <v>333.0869151904073</v>
+        <v>332.9546718240675</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13997,28 +14083,28 @@
         <v>0.052</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04957335622684876</v>
+        <v>-0.03736074845895348</v>
       </c>
       <c r="J4" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K4" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006423474096411974</v>
+        <v>0.0003686817185087898</v>
       </c>
       <c r="M4" t="n">
-        <v>11.29502335772858</v>
+        <v>11.27984841186793</v>
       </c>
       <c r="N4" t="n">
-        <v>194.8402947229188</v>
+        <v>194.1506942723266</v>
       </c>
       <c r="O4" t="n">
-        <v>13.9585205062327</v>
+        <v>13.93379683619388</v>
       </c>
       <c r="P4" t="n">
-        <v>331.7802082893958</v>
+        <v>331.6501515875149</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14075,28 +14161,28 @@
         <v>0.0403</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06004732361181588</v>
+        <v>-0.05285629314399277</v>
       </c>
       <c r="J5" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K5" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001240403059443729</v>
+        <v>0.0009694546064477061</v>
       </c>
       <c r="M5" t="n">
-        <v>9.729961121311188</v>
+        <v>9.73060248265136</v>
       </c>
       <c r="N5" t="n">
-        <v>147.9266190068623</v>
+        <v>147.7008132908419</v>
       </c>
       <c r="O5" t="n">
-        <v>12.1625087464249</v>
+        <v>12.15322234186645</v>
       </c>
       <c r="P5" t="n">
-        <v>346.0688070821607</v>
+        <v>345.992459168657</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14153,28 +14239,28 @@
         <v>0.0374</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07874955937690621</v>
+        <v>-0.06956020343720955</v>
       </c>
       <c r="J6" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K6" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002024333447469551</v>
+        <v>0.001593753847240253</v>
       </c>
       <c r="M6" t="n">
-        <v>9.635135248881642</v>
+        <v>9.62990857488291</v>
       </c>
       <c r="N6" t="n">
-        <v>154.2947357506194</v>
+        <v>153.9855911513659</v>
       </c>
       <c r="O6" t="n">
-        <v>12.42154321131716</v>
+        <v>12.40909308335488</v>
       </c>
       <c r="P6" t="n">
-        <v>344.1207988121349</v>
+        <v>344.0222244341247</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14231,28 +14317,28 @@
         <v>0.044</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2850836567165734</v>
+        <v>-0.2785199291972253</v>
       </c>
       <c r="J7" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K7" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02279478251933842</v>
+        <v>0.02201944898265695</v>
       </c>
       <c r="M7" t="n">
-        <v>10.47689022607681</v>
+        <v>10.44506144583343</v>
       </c>
       <c r="N7" t="n">
-        <v>178.5722344198825</v>
+        <v>177.7254982274907</v>
       </c>
       <c r="O7" t="n">
-        <v>13.36309224767541</v>
+        <v>13.33137270604534</v>
       </c>
       <c r="P7" t="n">
-        <v>343.7900515444265</v>
+        <v>343.7202041980926</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14309,28 +14395,28 @@
         <v>0.0496</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2904606037278507</v>
+        <v>-0.2772342509392652</v>
       </c>
       <c r="J8" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K8" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03305826177487237</v>
+        <v>0.03044373560224645</v>
       </c>
       <c r="M8" t="n">
-        <v>8.537316102305139</v>
+        <v>8.541640267776977</v>
       </c>
       <c r="N8" t="n">
-        <v>125.7081327393909</v>
+        <v>125.4534760970081</v>
       </c>
       <c r="O8" t="n">
-        <v>11.21196382171254</v>
+        <v>11.20060159531657</v>
       </c>
       <c r="P8" t="n">
-        <v>350.5266899229389</v>
+        <v>350.384224065511</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14368,7 +14454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:I319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28063,6 +28149,100 @@
         </is>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-45.86216479237512,170.74108189588978</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-45.862776588374366,170.74128429325245</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-45.86338768070889,170.74148477498056</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-45.86395184466606,170.74184719791484</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-45.864503951703114,170.74219091503596</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-45.86509195028326,170.742485649995</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-45.865593060337126,170.7430232558276</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-45.8621582556567,170.74114868604102</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-45.86277332688006,170.74131761819103</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-45.86340148786123,170.74136192461097</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-45.86400264234891,170.74161106293542</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-45.86456673656111,170.74199700407158</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>-45.86514629910072,170.74234134135796</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>-45.865599521883844,170.74300774567027</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0507/nzd0507.xlsx
+++ b/data/nzd0507/nzd0507.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I319"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10366,6 +10366,39 @@
         <v>351.9644444444444</v>
       </c>
       <c r="I319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>335.3542857142857</v>
+      </c>
+      <c r="C320" t="n">
+        <v>338.6478260869565</v>
+      </c>
+      <c r="D320" t="n">
+        <v>337.9822222222222</v>
+      </c>
+      <c r="E320" t="n">
+        <v>354.5785714285714</v>
+      </c>
+      <c r="F320" t="n">
+        <v>352.1585714285715</v>
+      </c>
+      <c r="G320" t="n">
+        <v>348.9</v>
+      </c>
+      <c r="H320" t="n">
+        <v>357.9522222222222</v>
+      </c>
+      <c r="I320" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10382,7 +10415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B337"/>
+  <dimension ref="A1:B338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13760,6 +13793,16 @@
       </c>
       <c r="B337" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
@@ -13933,28 +13976,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03518713436118081</v>
+        <v>0.03732675267347295</v>
       </c>
       <c r="J2" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005425055648144994</v>
+        <v>0.0006144448099181243</v>
       </c>
       <c r="M2" t="n">
-        <v>8.489234904631893</v>
+        <v>8.470572605349455</v>
       </c>
       <c r="N2" t="n">
-        <v>116.1714933511343</v>
+        <v>115.7831901649194</v>
       </c>
       <c r="O2" t="n">
-        <v>10.77828805289292</v>
+        <v>10.76025976289232</v>
       </c>
       <c r="P2" t="n">
-        <v>331.3663174566009</v>
+        <v>331.3431956066493</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14005,28 +14048,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.03315312261213735</v>
+        <v>-0.02860607082239943</v>
       </c>
       <c r="J3" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K3" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004458799326499951</v>
+        <v>0.0003339264948636345</v>
       </c>
       <c r="M3" t="n">
-        <v>8.978942993804267</v>
+        <v>8.968927323238949</v>
       </c>
       <c r="N3" t="n">
-        <v>126.8415219556911</v>
+        <v>126.5389785005728</v>
       </c>
       <c r="O3" t="n">
-        <v>11.26239414847887</v>
+        <v>11.24895455144934</v>
       </c>
       <c r="P3" t="n">
-        <v>332.9546718240675</v>
+        <v>332.9063237132015</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14083,28 +14126,28 @@
         <v>0.052</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03736074845895348</v>
+        <v>-0.03230892206183634</v>
       </c>
       <c r="J4" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K4" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003686817185087898</v>
+        <v>0.0002773832585364344</v>
       </c>
       <c r="M4" t="n">
-        <v>11.27984841186793</v>
+        <v>11.26678109775284</v>
       </c>
       <c r="N4" t="n">
-        <v>194.1506942723266</v>
+        <v>193.6417905572262</v>
       </c>
       <c r="O4" t="n">
-        <v>13.93379683619388</v>
+        <v>13.91552336627071</v>
       </c>
       <c r="P4" t="n">
-        <v>331.6501515875149</v>
+        <v>331.5961022285397</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14161,28 +14204,28 @@
         <v>0.0403</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05285629314399277</v>
+        <v>-0.04580329085743112</v>
       </c>
       <c r="J5" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K5" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009694546064477061</v>
+        <v>0.000731555262472483</v>
       </c>
       <c r="M5" t="n">
-        <v>9.73060248265136</v>
+        <v>9.732659735196975</v>
       </c>
       <c r="N5" t="n">
-        <v>147.7008132908419</v>
+        <v>147.5178680406554</v>
       </c>
       <c r="O5" t="n">
-        <v>12.15322234186645</v>
+        <v>12.14569339480688</v>
       </c>
       <c r="P5" t="n">
-        <v>345.992459168657</v>
+        <v>345.9170643044221</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14239,28 +14282,28 @@
         <v>0.0374</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06956020343720955</v>
+        <v>-0.06264946287071135</v>
       </c>
       <c r="J6" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K6" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001593753847240253</v>
+        <v>0.001299140900048124</v>
       </c>
       <c r="M6" t="n">
-        <v>9.62990857488291</v>
+        <v>9.634295650758277</v>
       </c>
       <c r="N6" t="n">
-        <v>153.9855911513659</v>
+        <v>153.7820205810669</v>
       </c>
       <c r="O6" t="n">
-        <v>12.40909308335488</v>
+        <v>12.40088789486732</v>
       </c>
       <c r="P6" t="n">
-        <v>344.0222244341247</v>
+        <v>343.9476619835933</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14317,28 +14360,28 @@
         <v>0.044</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2785199291972253</v>
+        <v>-0.2699761801704365</v>
       </c>
       <c r="J7" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K7" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02201944898265695</v>
+        <v>0.02079279379499799</v>
       </c>
       <c r="M7" t="n">
-        <v>10.44506144583343</v>
+        <v>10.45025462831144</v>
       </c>
       <c r="N7" t="n">
-        <v>177.7254982274907</v>
+        <v>177.6294921039082</v>
       </c>
       <c r="O7" t="n">
-        <v>13.33137270604534</v>
+        <v>13.32777146052213</v>
       </c>
       <c r="P7" t="n">
-        <v>343.7202041980926</v>
+        <v>343.6287343436636</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14395,28 +14438,28 @@
         <v>0.0496</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2772342509392652</v>
+        <v>-0.2671267838715293</v>
       </c>
       <c r="J8" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K8" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03044373560224645</v>
+        <v>0.02833831056942604</v>
       </c>
       <c r="M8" t="n">
-        <v>8.541640267776977</v>
+        <v>8.561330276144686</v>
       </c>
       <c r="N8" t="n">
-        <v>125.4534760970081</v>
+        <v>125.7783891807954</v>
       </c>
       <c r="O8" t="n">
-        <v>11.20060159531657</v>
+        <v>11.21509648557673</v>
       </c>
       <c r="P8" t="n">
-        <v>350.384224065511</v>
+        <v>350.2749148132968</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14454,7 +14497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I319"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28243,6 +28286,53 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-45.86216412907651,170.7410886732871</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-45.86277773070906,170.74127262120572</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-45.86339648961128,170.74140639712934</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-45.863964095917375,170.74179024775177</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-45.86452228943482,170.742134279124</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-45.86508631473133,170.7425006136399</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-45.865571929732894,170.74307397721287</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0507/nzd0507.xlsx
+++ b/data/nzd0507/nzd0507.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10399,6 +10399,72 @@
         <v>357.9522222222222</v>
       </c>
       <c r="I320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>329.8614285714286</v>
+      </c>
+      <c r="C321" t="n">
+        <v>333.1904347826087</v>
+      </c>
+      <c r="D321" t="n">
+        <v>332.14</v>
+      </c>
+      <c r="E321" t="n">
+        <v>352.6328571428572</v>
+      </c>
+      <c r="F321" t="n">
+        <v>351.9028571428572</v>
+      </c>
+      <c r="G321" t="n">
+        <v>339.24</v>
+      </c>
+      <c r="H321" t="n">
+        <v>354.01</v>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>329.4585714285714</v>
+      </c>
+      <c r="C322" t="n">
+        <v>329.7665217391304</v>
+      </c>
+      <c r="D322" t="n">
+        <v>328.6077777777778</v>
+      </c>
+      <c r="E322" t="n">
+        <v>345.9871428571428</v>
+      </c>
+      <c r="F322" t="n">
+        <v>336.2271428571428</v>
+      </c>
+      <c r="G322" t="n">
+        <v>324.52</v>
+      </c>
+      <c r="H322" t="n">
+        <v>339.8277777777778</v>
+      </c>
+      <c r="I322" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10415,7 +10481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B338"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13803,6 +13869,26 @@
       </c>
       <c r="B338" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -13976,28 +14062,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03732675267347295</v>
+        <v>0.03371145713260582</v>
       </c>
       <c r="J2" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K2" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006144448099181243</v>
+        <v>0.0005078108369328538</v>
       </c>
       <c r="M2" t="n">
-        <v>8.470572605349455</v>
+        <v>8.426525340072326</v>
       </c>
       <c r="N2" t="n">
-        <v>115.7831901649194</v>
+        <v>114.9970758973003</v>
       </c>
       <c r="O2" t="n">
-        <v>10.76025976289232</v>
+        <v>10.72366895690557</v>
       </c>
       <c r="P2" t="n">
-        <v>331.3431956066493</v>
+        <v>331.3823295388385</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14048,28 +14134,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.02860607082239943</v>
+        <v>-0.02954847930233586</v>
       </c>
       <c r="J3" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K3" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003339264948636345</v>
+        <v>0.0003611599238249052</v>
       </c>
       <c r="M3" t="n">
-        <v>8.968927323238949</v>
+        <v>8.917542549995359</v>
       </c>
       <c r="N3" t="n">
-        <v>126.5389785005728</v>
+        <v>125.6625041918324</v>
       </c>
       <c r="O3" t="n">
-        <v>11.24895455144934</v>
+        <v>11.20992882188965</v>
       </c>
       <c r="P3" t="n">
-        <v>332.9063237132015</v>
+        <v>332.9163735028814</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14126,28 +14212,28 @@
         <v>0.052</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03230892206183634</v>
+        <v>-0.03283895185318798</v>
       </c>
       <c r="J4" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K4" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002773832585364344</v>
+        <v>0.0002904492887454424</v>
       </c>
       <c r="M4" t="n">
-        <v>11.26678109775284</v>
+        <v>11.19878536984769</v>
       </c>
       <c r="N4" t="n">
-        <v>193.6417905572262</v>
+        <v>192.2819561279039</v>
       </c>
       <c r="O4" t="n">
-        <v>13.91552336627071</v>
+        <v>13.86657694342421</v>
       </c>
       <c r="P4" t="n">
-        <v>331.5961022285397</v>
+        <v>331.601796099805</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14204,28 +14290,28 @@
         <v>0.0403</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04580329085743112</v>
+        <v>-0.03943629911685791</v>
       </c>
       <c r="J5" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K5" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000731555262472483</v>
+        <v>0.0005491705266585933</v>
       </c>
       <c r="M5" t="n">
-        <v>9.732659735196975</v>
+        <v>9.69544189415204</v>
       </c>
       <c r="N5" t="n">
-        <v>147.5178680406554</v>
+        <v>146.6713092143243</v>
       </c>
       <c r="O5" t="n">
-        <v>12.14569339480688</v>
+        <v>12.11079308775128</v>
       </c>
       <c r="P5" t="n">
-        <v>345.9170643044221</v>
+        <v>345.8489206418466</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14282,28 +14368,28 @@
         <v>0.0374</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06264946287071135</v>
+        <v>-0.06028735678378896</v>
       </c>
       <c r="J6" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K6" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001299140900048124</v>
+        <v>0.001215890221871962</v>
       </c>
       <c r="M6" t="n">
-        <v>9.634295650758277</v>
+        <v>9.622531490606494</v>
       </c>
       <c r="N6" t="n">
-        <v>153.7820205810669</v>
+        <v>153.1410949154657</v>
       </c>
       <c r="O6" t="n">
-        <v>12.40088789486732</v>
+        <v>12.3750189864689</v>
       </c>
       <c r="P6" t="n">
-        <v>343.9476619835933</v>
+        <v>343.9221984003144</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14360,28 +14446,28 @@
         <v>0.044</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2699761801704365</v>
+        <v>-0.2764704334783278</v>
       </c>
       <c r="J7" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K7" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02079279379499799</v>
+        <v>0.02200500722569276</v>
       </c>
       <c r="M7" t="n">
-        <v>10.45025462831144</v>
+        <v>10.42919140568919</v>
       </c>
       <c r="N7" t="n">
-        <v>177.6294921039082</v>
+        <v>176.8989479074953</v>
       </c>
       <c r="O7" t="n">
-        <v>13.32777146052213</v>
+        <v>13.30033638324593</v>
       </c>
       <c r="P7" t="n">
-        <v>343.6287343436636</v>
+        <v>343.6984354121193</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14438,28 +14524,28 @@
         <v>0.0496</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2671267838715293</v>
+        <v>-0.2623520240705664</v>
       </c>
       <c r="J8" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K8" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02833831056942604</v>
+        <v>0.02761742547674373</v>
       </c>
       <c r="M8" t="n">
-        <v>8.561330276144686</v>
+        <v>8.549359801440701</v>
       </c>
       <c r="N8" t="n">
-        <v>125.7783891807954</v>
+        <v>125.3202545105701</v>
       </c>
       <c r="O8" t="n">
-        <v>11.21509648557673</v>
+        <v>11.19465294283704</v>
       </c>
       <c r="P8" t="n">
-        <v>350.2749148132968</v>
+        <v>350.2232496666942</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14497,7 +14583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28333,6 +28419,100 @@
         </is>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-45.862170984925555,170.74101862195545</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-45.86278454236355,170.7412030214198</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-45.863404838012634,170.74133211615268</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-45.863969247561826,170.7417663001922</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-45.86452325685341,170.74213129125732</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-45.86512755667824,170.74239110689717</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-45.865590095807434,170.7430303718178</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-45.86217148774555,170.7410134842499</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-45.86278881590603,170.74115935519825</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-45.86340988545342,170.74128720567782</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-45.86398684330152,170.74168450570562</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-45.86458256108073,170.74194812982813</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-45.86519040134145,170.74222423917354</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-45.865655448476424,170.7428735003171</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0507/nzd0507.xlsx
+++ b/data/nzd0507/nzd0507.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10465,6 +10465,138 @@
         <v>339.8277777777778</v>
       </c>
       <c r="I322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>328.7228571428572</v>
+      </c>
+      <c r="C323" t="n">
+        <v>335.59</v>
+      </c>
+      <c r="D323" t="n">
+        <v>332.8766666666667</v>
+      </c>
+      <c r="E323" t="n">
+        <v>353.5957142857143</v>
+      </c>
+      <c r="F323" t="n">
+        <v>358.2457142857143</v>
+      </c>
+      <c r="G323" t="n">
+        <v>348.03</v>
+      </c>
+      <c r="H323" t="n">
+        <v>357.2366666666667</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>330.94</v>
+      </c>
+      <c r="C324" t="n">
+        <v>326.0317391304347</v>
+      </c>
+      <c r="D324" t="n">
+        <v>326.5188888888889</v>
+      </c>
+      <c r="E324" t="n">
+        <v>355.36</v>
+      </c>
+      <c r="F324" t="n">
+        <v>353.9</v>
+      </c>
+      <c r="G324" t="n">
+        <v>337.37</v>
+      </c>
+      <c r="H324" t="n">
+        <v>349.9988888888889</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>323.73</v>
+      </c>
+      <c r="C325" t="n">
+        <v>328.6060869565217</v>
+      </c>
+      <c r="D325" t="n">
+        <v>332.2444444444445</v>
+      </c>
+      <c r="E325" t="n">
+        <v>351.82</v>
+      </c>
+      <c r="F325" t="n">
+        <v>348.53</v>
+      </c>
+      <c r="G325" t="n">
+        <v>349.51</v>
+      </c>
+      <c r="H325" t="n">
+        <v>354.5444444444445</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>323.9785714285715</v>
+      </c>
+      <c r="C326" t="n">
+        <v>322.6491304347826</v>
+      </c>
+      <c r="D326" t="n">
+        <v>329.6222222222222</v>
+      </c>
+      <c r="E326" t="n">
+        <v>355.3171428571428</v>
+      </c>
+      <c r="F326" t="n">
+        <v>354.3871428571428</v>
+      </c>
+      <c r="G326" t="n">
+        <v>352.33</v>
+      </c>
+      <c r="H326" t="n">
+        <v>352.3122222222222</v>
+      </c>
+      <c r="I326" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10481,7 +10613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13889,6 +14021,46 @@
       </c>
       <c r="B340" t="n">
         <v>0.17</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -14062,28 +14234,28 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03371145713260582</v>
+        <v>0.0192117679544754</v>
       </c>
       <c r="J2" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K2" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005078108369328538</v>
+        <v>0.0001686750693505878</v>
       </c>
       <c r="M2" t="n">
-        <v>8.426525340072326</v>
+        <v>8.373478032419474</v>
       </c>
       <c r="N2" t="n">
-        <v>114.9970758973003</v>
+        <v>113.8969799505145</v>
       </c>
       <c r="O2" t="n">
-        <v>10.72366895690557</v>
+        <v>10.67225280578166</v>
       </c>
       <c r="P2" t="n">
-        <v>331.3823295388385</v>
+        <v>331.5408846570354</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14134,28 +14306,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.02954847930233586</v>
+        <v>-0.04005970092436737</v>
       </c>
       <c r="J3" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K3" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003611599238249052</v>
+        <v>0.0006792337057968112</v>
       </c>
       <c r="M3" t="n">
-        <v>8.917542549995359</v>
+        <v>8.873494143671428</v>
       </c>
       <c r="N3" t="n">
-        <v>125.6625041918324</v>
+        <v>124.4232232992693</v>
       </c>
       <c r="O3" t="n">
-        <v>11.20992882188965</v>
+        <v>11.15451582540763</v>
       </c>
       <c r="P3" t="n">
-        <v>332.9163735028814</v>
+        <v>333.0295175200604</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14212,28 +14384,28 @@
         <v>0.052</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03283895185318798</v>
+        <v>-0.03399094112916965</v>
       </c>
       <c r="J4" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K4" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002904492887454424</v>
+        <v>0.0003195950757082233</v>
       </c>
       <c r="M4" t="n">
-        <v>11.19878536984769</v>
+        <v>11.07239063983616</v>
       </c>
       <c r="N4" t="n">
-        <v>192.2819561279039</v>
+        <v>189.6649093103201</v>
       </c>
       <c r="O4" t="n">
-        <v>13.86657694342421</v>
+        <v>13.77188837125541</v>
       </c>
       <c r="P4" t="n">
-        <v>331.601796099805</v>
+        <v>331.6142750523289</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14290,28 +14462,28 @@
         <v>0.0403</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03943629911685791</v>
+        <v>-0.01438397561770376</v>
       </c>
       <c r="J5" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K5" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005491705266585933</v>
+        <v>7.453892131048523e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>9.69544189415204</v>
+        <v>9.68494807868684</v>
       </c>
       <c r="N5" t="n">
-        <v>146.6713092143243</v>
+        <v>145.7590926981138</v>
       </c>
       <c r="O5" t="n">
-        <v>12.11079308775128</v>
+        <v>12.07307304285507</v>
       </c>
       <c r="P5" t="n">
-        <v>345.8489206418466</v>
+        <v>345.5781147326013</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14368,28 +14540,28 @@
         <v>0.0374</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06028735678378896</v>
+        <v>-0.02974197856556405</v>
       </c>
       <c r="J6" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K6" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001215890221871962</v>
+        <v>0.0003004788319004303</v>
       </c>
       <c r="M6" t="n">
-        <v>9.622531490606494</v>
+        <v>9.657107471835847</v>
       </c>
       <c r="N6" t="n">
-        <v>153.1410949154657</v>
+        <v>152.9122367081104</v>
       </c>
       <c r="O6" t="n">
-        <v>12.3750189864689</v>
+        <v>12.3657687471548</v>
       </c>
       <c r="P6" t="n">
-        <v>343.9221984003144</v>
+        <v>343.5890106990598</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14446,28 +14618,28 @@
         <v>0.044</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2764704334783278</v>
+        <v>-0.249045363602562</v>
       </c>
       <c r="J7" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K7" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02200500722569276</v>
+        <v>0.01821481558239124</v>
       </c>
       <c r="M7" t="n">
-        <v>10.42919140568919</v>
+        <v>10.4171232618922</v>
       </c>
       <c r="N7" t="n">
-        <v>176.8989479074953</v>
+        <v>176.2896364342935</v>
       </c>
       <c r="O7" t="n">
-        <v>13.30033638324593</v>
+        <v>13.2774107579111</v>
       </c>
       <c r="P7" t="n">
-        <v>343.6984354121193</v>
+        <v>343.401364078988</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14524,28 +14696,28 @@
         <v>0.0496</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2623520240705664</v>
+        <v>-0.2355660146960061</v>
       </c>
       <c r="J8" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K8" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02761742547674373</v>
+        <v>0.02269859622616333</v>
       </c>
       <c r="M8" t="n">
-        <v>8.549359801440701</v>
+        <v>8.561683339147805</v>
       </c>
       <c r="N8" t="n">
-        <v>125.3202545105701</v>
+        <v>125.039568036951</v>
       </c>
       <c r="O8" t="n">
-        <v>11.19465294283704</v>
+        <v>11.18210928389412</v>
       </c>
       <c r="P8" t="n">
-        <v>350.2232496666942</v>
+        <v>349.9302428926489</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -14583,7 +14755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28513,6 +28685,194 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-45.86217240601551,170.74100410156043</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-45.86278154734642,170.74123362381323</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-45.86340378533557,170.74134148250747</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-45.86396669821711,170.74177815089402</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-45.86449926052516,170.74220540367486</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-45.865090029072604,170.7424907512379</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-45.86557522707128,170.7430660623687</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-45.862169638721944,170.74103237715966</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-45.86279347743984,170.74111172435414</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-45.86341287040529,170.74126064647555</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-45.86396202693686,170.74179986545622</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-45.86451570125807,170.74215462666038</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-45.865135540355254,170.74236990836854</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-45.86560857930977,170.7429860044057</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-45.86217863774934,170.74094042679644</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-45.86279026429394,170.74114455581338</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-45.86340468876436,170.7413334441125</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-45.86397139975245,170.7417562956672</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>-45.86453601704298,170.74209188145315</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>-45.86508371042256,170.7425075286566</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>-45.86558763304581,170.74303628337384</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-45.86217832750078,170.74094359687084</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-45.8627976993938,170.7410685848872</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-45.863408435844235,170.74130010384263</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-45.8639621404093,170.741799337977</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-45.86451385829739,170.7421603186283</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-45.86507167082558,170.7425394964305</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>-45.865597919297585,170.7430115924846</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0507/nzd0507.xlsx
+++ b/data/nzd0507/nzd0507.xlsx
@@ -14228,10 +14228,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06279999999999999</v>
+        <v>0.0646</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08210000000000001</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="I2" t="n">
         <v>0.01921293405657771</v>
@@ -14302,9 +14302,15 @@
       <c r="E3" t="n">
         <v>0.1668426658632136</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.07099999999999999</v>
+      </c>
       <c r="I3" t="n">
         <v>-0.04004599829960066</v>
       </c>
@@ -14375,13 +14381,13 @@
         <v>0.3336853317279615</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0398</v>
+        <v>0.0549</v>
       </c>
       <c r="H4" t="n">
-        <v>0.052</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>-0.03399223045653095</v>
@@ -14453,13 +14459,13 @@
         <v>0.4997190297655524</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.065</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0332</v>
+        <v>0.0589</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0403</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>-0.0143956642258331</v>
@@ -14531,13 +14537,13 @@
         <v>0.6665616956251322</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0321</v>
+        <v>0.0483</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0374</v>
+        <v>0.0551</v>
       </c>
       <c r="I6" t="n">
         <v>-0.0297451847579037</v>
@@ -14609,13 +14615,13 @@
         <v>0.8331573732246953</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0339</v>
+        <v>0.0445</v>
       </c>
       <c r="H7" t="n">
-        <v>0.044</v>
+        <v>0.0525</v>
       </c>
       <c r="I7" t="n">
         <v>-0.249045363602562</v>
@@ -14687,13 +14693,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0398</v>
+        <v>0.0438</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0496</v>
+        <v>0.0559</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2355571081921478</v>

--- a/data/nzd0507/nzd0507.xlsx
+++ b/data/nzd0507/nzd0507.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.93</v>
+        <v>359.64</v>
       </c>
       <c r="C3" t="n">
         <v>355.23</v>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>357.83</v>
+        <v>358.66</v>
       </c>
       <c r="C4" t="n">
         <v>354.32</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.33</v>
+        <v>333.29</v>
       </c>
       <c r="C5" t="n">
         <v>341.26</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>331.39</v>
+        <v>330.83</v>
       </c>
       <c r="C6" t="n">
         <v>328.12</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>321.84</v>
+        <v>321.6</v>
       </c>
       <c r="C7" t="n">
         <v>325.38</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>329.81</v>
+        <v>329.38</v>
       </c>
       <c r="C8" t="n">
         <v>336.3</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>332.67</v>
+        <v>331.86</v>
       </c>
       <c r="C9" t="n">
         <v>326.9</v>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.52</v>
+        <v>331.95</v>
       </c>
       <c r="C10" t="n">
         <v>337.13</v>
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>347.61</v>
+        <v>348.45</v>
       </c>
       <c r="C11" t="n">
         <v>345.63</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>335.35</v>
+        <v>334.62</v>
       </c>
       <c r="C12" t="n">
         <v>336.15</v>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>321.82</v>
+        <v>321.29</v>
       </c>
       <c r="C13" t="n">
         <v>325.21</v>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>319.55</v>
+        <v>319.19</v>
       </c>
       <c r="C14" t="n">
         <v>319.13</v>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>318.39</v>
+        <v>319.03</v>
       </c>
       <c r="C15" t="n">
         <v>317.32</v>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>320.26</v>
+        <v>320.25</v>
       </c>
       <c r="C16" t="n">
         <v>319.81</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>338.1</v>
+        <v>338.54</v>
       </c>
       <c r="C17" t="n">
         <v>334.86</v>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>332.43</v>
+        <v>333.1</v>
       </c>
       <c r="C18" t="n">
         <v>334.46</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.88</v>
+        <v>321.95</v>
       </c>
       <c r="C19" t="n">
         <v>323.89</v>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>324.18</v>
+        <v>324.16</v>
       </c>
       <c r="C20" t="n">
         <v>324.82</v>
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>318.5</v>
+        <v>318.43</v>
       </c>
       <c r="C21" t="n">
         <v>315.18</v>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322.02</v>
+        <v>321.88</v>
       </c>
       <c r="C22" t="n">
         <v>318.44</v>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>322.06</v>
+        <v>321.96</v>
       </c>
       <c r="C23" t="n">
         <v>315.64</v>
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>321.05</v>
+        <v>320.89</v>
       </c>
       <c r="C25" t="n">
         <v>317.29</v>
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.32</v>
+        <v>342.68</v>
       </c>
       <c r="C26" t="n">
         <v>332.47</v>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>331.63</v>
+        <v>331.54</v>
       </c>
       <c r="C27" t="n">
         <v>338.34</v>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>343.61</v>
+        <v>344.18</v>
       </c>
       <c r="C29" t="n">
         <v>339.96</v>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>335.27</v>
+        <v>334.94</v>
       </c>
       <c r="C30" t="n">
         <v>340.93</v>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>334.55</v>
+        <v>334.11</v>
       </c>
       <c r="C31" t="n">
         <v>326.64</v>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>318.4</v>
+        <v>318.41</v>
       </c>
       <c r="C32" t="n">
         <v>327.45</v>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>345.07</v>
+        <v>345.64</v>
       </c>
       <c r="C34" t="n">
         <v>347.85</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>331.29</v>
+        <v>330.82</v>
       </c>
       <c r="C36" t="n">
         <v>331.37</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>332.43</v>
+        <v>332.3</v>
       </c>
       <c r="C38" t="n">
         <v>328.96</v>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>333.16</v>
+        <v>333.09</v>
       </c>
       <c r="C39" t="n">
         <v>341.75</v>
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>331.11</v>
+        <v>330.71</v>
       </c>
       <c r="C40" t="n">
         <v>336.5</v>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>327.99</v>
+        <v>327.92</v>
       </c>
       <c r="C41" t="n">
         <v>329.39</v>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>343.72</v>
+        <v>344.02</v>
       </c>
       <c r="C42" t="n">
         <v>344.03</v>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>332.51</v>
+        <v>332.02</v>
       </c>
       <c r="C43" t="n">
         <v>337.96</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>328.92</v>
+        <v>328.63</v>
       </c>
       <c r="C44" t="n">
         <v>335.64</v>
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>327.51</v>
+        <v>327.53</v>
       </c>
       <c r="C45" t="n">
         <v>330.28</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>323.1</v>
+        <v>322.83</v>
       </c>
       <c r="C46" t="n">
         <v>324</v>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>342.65</v>
+        <v>343.34</v>
       </c>
       <c r="C47" t="n">
         <v>345.17</v>
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>330.94</v>
+        <v>331.33</v>
       </c>
       <c r="C48" t="n">
         <v>336.13</v>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>327.07</v>
+        <v>326.45</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>329.37</v>
+        <v>329.96</v>
       </c>
       <c r="C51" t="n">
         <v>329.69</v>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>352.13</v>
+        <v>352.69</v>
       </c>
       <c r="C52" t="n">
         <v>350.11</v>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>345.17</v>
+        <v>345.83</v>
       </c>
       <c r="C53" t="n">
         <v>343.04</v>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>348.93</v>
+        <v>348.52</v>
       </c>
       <c r="C54" t="n">
         <v>346.81</v>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>355.38</v>
+        <v>355.98</v>
       </c>
       <c r="C56" t="n">
         <v>354.89</v>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>345.77</v>
+        <v>346.5</v>
       </c>
       <c r="C58" t="n">
         <v>345.91</v>
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>326.23</v>
+        <v>327.09</v>
       </c>
       <c r="C59" t="n">
         <v>328.33</v>
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>317.45</v>
+        <v>317.71</v>
       </c>
       <c r="C60" t="n">
         <v>339.79</v>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>336.11</v>
+        <v>335.93</v>
       </c>
       <c r="C62" t="n">
         <v>348.48</v>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>355.85</v>
+        <v>355.38</v>
       </c>
       <c r="C63" t="n">
         <v>359.17</v>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>353.84</v>
+        <v>354.66</v>
       </c>
       <c r="C64" t="n">
         <v>358.45</v>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>314.58</v>
+        <v>314.92</v>
       </c>
       <c r="C66" t="n">
         <v>315</v>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>335.07</v>
+        <v>334.5</v>
       </c>
       <c r="C67" t="n">
         <v>339.22</v>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>317.36</v>
+        <v>317.49</v>
       </c>
       <c r="C68" t="n">
         <v>328.46</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>311.84</v>
+        <v>312.57</v>
       </c>
       <c r="C69" t="n">
         <v>314.58</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>329.8</v>
+        <v>329.33</v>
       </c>
       <c r="C70" t="n">
         <v>326.38</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>333.12</v>
+        <v>332.56</v>
       </c>
       <c r="C71" t="n">
         <v>321.52</v>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>339.85</v>
+        <v>340.81</v>
       </c>
       <c r="C72" t="n">
         <v>331.82</v>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>350.85</v>
+        <v>351.18</v>
       </c>
       <c r="C73" t="n">
         <v>349.85</v>
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>347.16</v>
+        <v>347.4</v>
       </c>
       <c r="C74" t="n">
         <v>342.44</v>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>332.65</v>
+        <v>332.07</v>
       </c>
       <c r="C75" t="n">
         <v>334.82</v>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>329.54</v>
+        <v>330.13</v>
       </c>
       <c r="C76" t="n">
         <v>334.93</v>
@@ -2829,7 +2829,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>326.1</v>
+        <v>325.67</v>
       </c>
       <c r="C77" t="n">
         <v>323.05</v>
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>344.41</v>
+        <v>345.05</v>
       </c>
       <c r="C78" t="n">
         <v>339.16</v>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>345.32</v>
+        <v>346.34</v>
       </c>
       <c r="C79" t="n">
         <v>332.94</v>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>337.72</v>
+        <v>337.42</v>
       </c>
       <c r="C80" t="n">
         <v>344.39</v>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>327.35</v>
+        <v>327.52</v>
       </c>
       <c r="C81" t="n">
         <v>332.05</v>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>322.95</v>
+        <v>323.57</v>
       </c>
       <c r="C82" t="n">
         <v>323.99</v>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>315.68</v>
+        <v>316.25</v>
       </c>
       <c r="C83" t="n">
         <v>315.23</v>
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>331.1</v>
+        <v>331.36</v>
       </c>
       <c r="C84" t="n">
         <v>334.61</v>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>331.06</v>
+        <v>331.36</v>
       </c>
       <c r="C85" t="n">
         <v>334.66</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>323.48</v>
+        <v>323.39</v>
       </c>
       <c r="C86" t="n">
         <v>338.75</v>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>340.03</v>
+        <v>339.67</v>
       </c>
       <c r="C87" t="n">
         <v>343.04</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>323.05</v>
+        <v>322.52</v>
       </c>
       <c r="C89" t="n">
         <v>324.32</v>
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>331.26</v>
+        <v>330.63</v>
       </c>
       <c r="C90" t="n">
         <v>326.94</v>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>317.36</v>
+        <v>317.43</v>
       </c>
       <c r="C92" t="n">
         <v>314.76</v>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>324.7</v>
+        <v>325.7</v>
       </c>
       <c r="C93" t="n">
         <v>323.97</v>
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>330.48</v>
+        <v>331.04</v>
       </c>
       <c r="C94" t="n">
         <v>330.75</v>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>349.69</v>
+        <v>349.6</v>
       </c>
       <c r="C95" t="n">
         <v>349.56</v>
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>333.79</v>
+        <v>334.33</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>334.45</v>
+        <v>334.48</v>
       </c>
       <c r="C98" t="n">
         <v>331.16</v>
@@ -3519,7 +3519,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>329.66</v>
+        <v>329.73</v>
       </c>
       <c r="C99" t="n">
         <v>332.69</v>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>324.41</v>
+        <v>324.94</v>
       </c>
       <c r="C100" t="n">
         <v>332.97</v>
@@ -3585,7 +3585,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>342.56</v>
+        <v>343.57</v>
       </c>
       <c r="C101" t="n">
         <v>345.94</v>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>324.79</v>
+        <v>325.46</v>
       </c>
       <c r="C102" t="n">
         <v>332.18</v>
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>328.74</v>
+        <v>328.97</v>
       </c>
       <c r="C103" t="n">
         <v>328.1</v>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>323.6</v>
+        <v>323.3</v>
       </c>
       <c r="C104" t="n">
         <v>318.13</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>322.35</v>
+        <v>321.73</v>
       </c>
       <c r="C105" t="n">
         <v>323.07</v>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>319.3</v>
+        <v>318.72</v>
       </c>
       <c r="C106" t="n">
         <v>319.42</v>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>349</v>
+        <v>349.87</v>
       </c>
       <c r="C107" t="n">
         <v>347.58</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>335.37</v>
+        <v>335.55</v>
       </c>
       <c r="C108" t="n">
         <v>336.96</v>
@@ -3849,7 +3849,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>335.62</v>
+        <v>335.61</v>
       </c>
       <c r="C109" t="n">
         <v>336.51</v>
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>339.72</v>
+        <v>340.1</v>
       </c>
       <c r="C110" t="n">
         <v>337.6</v>
@@ -3915,7 +3915,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>324.13</v>
+        <v>323.94</v>
       </c>
       <c r="C111" t="n">
         <v>327.41</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>325.71</v>
+        <v>325.22</v>
       </c>
       <c r="C112" t="n">
         <v>323.26</v>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>328.64</v>
+        <v>329.48</v>
       </c>
       <c r="C114" t="n">
         <v>329.86</v>
@@ -4039,7 +4039,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>328.86</v>
+        <v>328.42</v>
       </c>
       <c r="C115" t="n">
         <v>325.48</v>
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>337.79</v>
+        <v>338.83</v>
       </c>
       <c r="C116" t="n">
         <v>338.74</v>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>323.74</v>
+        <v>323.94</v>
       </c>
       <c r="C118" t="n">
         <v>322.91</v>
@@ -4169,7 +4169,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>326.72</v>
+        <v>326.11</v>
       </c>
       <c r="C119" t="n">
         <v>324.09</v>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>327.12</v>
+        <v>326.52</v>
       </c>
       <c r="C120" t="n">
         <v>320.27</v>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>335.13</v>
+        <v>335.33</v>
       </c>
       <c r="C121" t="n">
         <v>339.64</v>
@@ -4268,7 +4268,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>328.37</v>
+        <v>328.41</v>
       </c>
       <c r="C122" t="n">
         <v>335.29</v>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>335.67</v>
+        <v>336.14</v>
       </c>
       <c r="C123" t="n">
         <v>338.26</v>
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>295.7</v>
+        <v>296.46</v>
       </c>
       <c r="C124" t="n">
         <v>298.98</v>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>327.04</v>
+        <v>326.71</v>
       </c>
       <c r="C126" t="n">
         <v>325.04</v>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>317.79</v>
+        <v>318.21</v>
       </c>
       <c r="C127" t="n">
         <v>316.9</v>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>322.75</v>
+        <v>322.97</v>
       </c>
       <c r="C129" t="n">
         <v>333.96</v>
@@ -4520,7 +4520,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>318.05</v>
+        <v>317.42</v>
       </c>
       <c r="C130" t="n">
         <v>320.83</v>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>330.73</v>
+        <v>330.26</v>
       </c>
       <c r="C131" t="n">
         <v>325.59</v>
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>322.45</v>
+        <v>321.83</v>
       </c>
       <c r="C132" t="n">
         <v>322.89</v>
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>329.5</v>
+        <v>328.83</v>
       </c>
       <c r="C133" t="n">
         <v>326.66</v>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>324.22</v>
+        <v>324.19</v>
       </c>
       <c r="C134" t="n">
         <v>327.04</v>
@@ -4685,7 +4685,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>333.47</v>
+        <v>333.63</v>
       </c>
       <c r="C135" t="n">
         <v>333.36</v>
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>323.91</v>
+        <v>323.21</v>
       </c>
       <c r="C136" t="n">
         <v>325.65</v>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>330.75</v>
+        <v>331.17</v>
       </c>
       <c r="C137" t="n">
         <v>333.95</v>
@@ -4784,7 +4784,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>338.31</v>
+        <v>337.81</v>
       </c>
       <c r="C138" t="n">
         <v>343.69</v>
@@ -4817,7 +4817,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>330.49</v>
+        <v>330.12</v>
       </c>
       <c r="C139" t="n">
         <v>333.41</v>
@@ -4848,7 +4848,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>330.25</v>
+        <v>330.28</v>
       </c>
       <c r="C140" t="n">
         <v>333.67</v>
@@ -4881,7 +4881,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>325.46</v>
+        <v>325.64</v>
       </c>
       <c r="C141" t="n">
         <v>334.54</v>
@@ -4914,7 +4914,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>328.43</v>
+        <v>328.52</v>
       </c>
       <c r="C142" t="n">
         <v>331.6</v>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>331.02</v>
+        <v>330.55</v>
       </c>
       <c r="C143" t="n">
         <v>325.89</v>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>311.39</v>
+        <v>312.33</v>
       </c>
       <c r="C144" t="n">
         <v>305.55</v>
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>323.99</v>
+        <v>323.75</v>
       </c>
       <c r="C145" t="n">
         <v>323.58</v>
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>325.68</v>
+        <v>325.52</v>
       </c>
       <c r="C146" t="n">
         <v>325.96</v>
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>321.58</v>
+        <v>321.85</v>
       </c>
       <c r="C147" t="n">
         <v>325.63</v>
@@ -5100,7 +5100,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>328.65</v>
+        <v>328.15</v>
       </c>
       <c r="C148" t="n">
         <v>322.81</v>
@@ -5133,7 +5133,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>334.28</v>
+        <v>334.34</v>
       </c>
       <c r="C149" t="n">
         <v>332.22</v>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>326.3</v>
+        <v>325.68</v>
       </c>
       <c r="C150" t="n">
         <v>321.73</v>
@@ -5199,7 +5199,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>331.22</v>
+        <v>331.63</v>
       </c>
       <c r="C151" t="n">
         <v>334.29</v>
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>328.8</v>
+        <v>328.36</v>
       </c>
       <c r="C152" t="n">
         <v>325.71</v>
@@ -5263,7 +5263,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>324.52</v>
+        <v>324.58</v>
       </c>
       <c r="C153" t="n">
         <v>320.32</v>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>316.03</v>
+        <v>316.56</v>
       </c>
       <c r="C154" t="n">
         <v>315.73</v>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>320.23</v>
+        <v>319.85</v>
       </c>
       <c r="C155" t="n">
         <v>320.29</v>
@@ -5358,7 +5358,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>323.54</v>
+        <v>324.51</v>
       </c>
       <c r="C156" t="n">
         <v>321.18</v>
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>327.18</v>
+        <v>327.02</v>
       </c>
       <c r="C157" t="n">
         <v>329.47</v>
@@ -5424,7 +5424,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>328.86</v>
+        <v>328.3</v>
       </c>
       <c r="C158" t="n">
         <v>322.63</v>
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>303.94</v>
+        <v>304.34</v>
       </c>
       <c r="C159" t="n">
         <v>306.62</v>
@@ -5490,7 +5490,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>325.73</v>
+        <v>325.27</v>
       </c>
       <c r="C160" t="n">
         <v>333.57</v>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>324.05</v>
+        <v>324.01</v>
       </c>
       <c r="C161" t="n">
         <v>324.2</v>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>313.68</v>
+        <v>314.12</v>
       </c>
       <c r="C162" t="n">
         <v>319.8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>322.2</v>
+        <v>321.76</v>
       </c>
       <c r="C163" t="n">
         <v>324.13</v>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>314.31</v>
+        <v>315.14</v>
       </c>
       <c r="C164" t="n">
         <v>317.92</v>
@@ -5651,7 +5651,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>331.35</v>
+        <v>330.73</v>
       </c>
       <c r="C165" t="n">
         <v>324.25</v>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>315.57</v>
+        <v>316.33</v>
       </c>
       <c r="C166" t="n">
         <v>318.19</v>
@@ -5713,7 +5713,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>315.91</v>
+        <v>316.48</v>
       </c>
       <c r="C167" t="n">
         <v>317.16</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>310.77</v>
+        <v>311.26</v>
       </c>
       <c r="C169" t="n">
         <v>312.18</v>
@@ -5825,7 +5825,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>337.72</v>
+        <v>338.32</v>
       </c>
       <c r="C171" t="n">
         <v>334.8</v>
@@ -5856,7 +5856,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>332.3</v>
+        <v>331.7</v>
       </c>
       <c r="C172" t="n">
         <v>329.52</v>
@@ -5889,7 +5889,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>345.02</v>
+        <v>345.64</v>
       </c>
       <c r="C173" t="n">
         <v>346.1</v>
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>318.35</v>
+        <v>318.85</v>
       </c>
       <c r="C174" t="n">
         <v>329.4</v>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>334.23</v>
+        <v>333.62</v>
       </c>
       <c r="C175" t="n">
         <v>329.78</v>
@@ -5988,7 +5988,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>328.09</v>
+        <v>327.45</v>
       </c>
       <c r="C176" t="n">
         <v>323.04</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>327.32</v>
+        <v>326.88</v>
       </c>
       <c r="C177" t="n">
         <v>327.24</v>
@@ -6054,7 +6054,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>330.63</v>
+        <v>330.1</v>
       </c>
       <c r="C178" t="n">
         <v>325.51</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>341.28</v>
+        <v>341.78</v>
       </c>
       <c r="C179" t="n">
         <v>343.36</v>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>342.7</v>
+        <v>342.74</v>
       </c>
       <c r="C180" t="n">
         <v>342.65</v>
@@ -6153,7 +6153,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>341.22</v>
+        <v>341.53</v>
       </c>
       <c r="C181" t="n">
         <v>339.46</v>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>340.47</v>
+        <v>341.03</v>
       </c>
       <c r="C184" t="n">
         <v>341.11</v>
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>324.72</v>
+        <v>324.63</v>
       </c>
       <c r="C185" t="n">
         <v>335.22</v>
@@ -6290,7 +6290,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>314.11</v>
+        <v>314.8</v>
       </c>
       <c r="C186" t="n">
         <v>314.29</v>
@@ -6323,7 +6323,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>341.03</v>
+        <v>340.74</v>
       </c>
       <c r="C187" t="n">
         <v>329.93</v>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>333.41</v>
+        <v>334.38</v>
       </c>
       <c r="C188" t="n">
         <v>334.48</v>
@@ -6476,7 +6476,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>325.19</v>
+        <v>325.66</v>
       </c>
       <c r="C192" t="n">
         <v>327.31</v>
@@ -6509,7 +6509,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>328.11</v>
+        <v>327.82</v>
       </c>
       <c r="C193" t="n">
         <v>327.75</v>
@@ -6540,7 +6540,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>322.22</v>
+        <v>322.18</v>
       </c>
       <c r="C194" t="n">
         <v>319.81</v>
@@ -6573,7 +6573,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>324.12</v>
+        <v>324.28</v>
       </c>
       <c r="C195" t="n">
         <v>325.48</v>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>322.8</v>
+        <v>322.87</v>
       </c>
       <c r="C196" t="n">
         <v>328.26</v>
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>342.61</v>
+        <v>343.27</v>
       </c>
       <c r="C198" t="n">
         <v>337.9</v>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>326.27</v>
+        <v>326.63</v>
       </c>
       <c r="C199" t="n">
         <v>325.81</v>
@@ -6728,7 +6728,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>339.72</v>
+        <v>339.28</v>
       </c>
       <c r="C200" t="n">
         <v>343.26</v>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>347.24</v>
+        <v>346.81</v>
       </c>
       <c r="C201" t="n">
         <v>347.03</v>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>331.55</v>
+        <v>331.46</v>
       </c>
       <c r="C202" t="n">
         <v>334.15</v>
@@ -6848,7 +6848,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>343.63</v>
+        <v>343.16</v>
       </c>
       <c r="C204" t="n">
         <v>350.08</v>
@@ -6881,7 +6881,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>327.51</v>
+        <v>328.15</v>
       </c>
       <c r="C205" t="n">
         <v>315.38</v>
@@ -6906,7 +6906,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>340.8</v>
+        <v>340.19</v>
       </c>
       <c r="C206" t="n">
         <v>343.62</v>
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>345.6</v>
+        <v>346.33</v>
       </c>
       <c r="C207" t="n">
         <v>347.57</v>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>334.49</v>
+        <v>335.03</v>
       </c>
       <c r="C208" t="n">
         <v>341.36</v>
@@ -7016,7 +7016,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>333.56</v>
+        <v>333.55</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>337.3</v>
+        <v>337.14</v>
       </c>
       <c r="C211" t="n">
         <v>344.61</v>
@@ -7070,7 +7070,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>358.76</v>
+        <v>359.12</v>
       </c>
       <c r="C212" t="n">
         <v>362.9</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>343.8</v>
+        <v>343.33</v>
       </c>
       <c r="C213" t="n">
         <v>350.76</v>
@@ -7159,7 +7159,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>337.13</v>
+        <v>336.71</v>
       </c>
       <c r="C215" t="n">
         <v>339.01</v>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>332.28</v>
+        <v>331.61</v>
       </c>
       <c r="C216" t="n">
         <v>330.98</v>
@@ -7225,7 +7225,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>336.23</v>
+        <v>336.73</v>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>326.83</v>
+        <v>326.3</v>
       </c>
       <c r="C218" t="n">
         <v>329.66</v>
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>328.37</v>
+        <v>328.71</v>
       </c>
       <c r="C219" t="n">
         <v>334.14</v>
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>340.21</v>
+        <v>340.08</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
@@ -7333,7 +7333,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>339.33</v>
+        <v>339.36</v>
       </c>
       <c r="C221" t="n">
         <v>343.1</v>
@@ -7366,7 +7366,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>337.75</v>
+        <v>337.08</v>
       </c>
       <c r="C222" t="n">
         <v>337.86</v>
@@ -7457,7 +7457,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>358.24</v>
+        <v>359.07</v>
       </c>
       <c r="C225" t="n">
         <v>351.95</v>
@@ -7538,7 +7538,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>331.99</v>
+        <v>331.46</v>
       </c>
       <c r="C228" t="n">
         <v>345.86</v>
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>332.57</v>
+        <v>333.04</v>
       </c>
       <c r="C229" t="n">
         <v>335.64</v>
@@ -7598,7 +7598,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>343.28</v>
+        <v>343.61</v>
       </c>
       <c r="C230" t="n">
         <v>344.6</v>
@@ -7631,7 +7631,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>349.86</v>
+        <v>349.96</v>
       </c>
       <c r="C231" t="n">
         <v>341.72</v>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>348.66</v>
+        <v>348.59</v>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>352.22</v>
+        <v>351.64</v>
       </c>
       <c r="C233" t="n">
         <v>353.36</v>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>338.35</v>
+        <v>339.28</v>
       </c>
       <c r="C234" t="n">
         <v>336.2</v>
@@ -7747,7 +7747,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>334.39</v>
+        <v>335.02</v>
       </c>
       <c r="C235" t="n">
         <v>334.57</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>344.16</v>
+        <v>344.76</v>
       </c>
       <c r="C236" t="n">
         <v>344.03</v>
@@ -7805,7 +7805,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>343.75</v>
+        <v>344.31</v>
       </c>
       <c r="C237" t="n">
         <v>342.58</v>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>326.26</v>
+        <v>326.02</v>
       </c>
       <c r="C239" t="n">
         <v>325.16</v>
@@ -7890,7 +7890,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>322.55</v>
+        <v>323.05</v>
       </c>
       <c r="C240" t="n">
         <v>323.21</v>
@@ -7923,7 +7923,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>329.22</v>
+        <v>328.83</v>
       </c>
       <c r="C241" t="n">
         <v>325.71</v>
@@ -7956,7 +7956,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>329.74</v>
+        <v>329.23</v>
       </c>
       <c r="C242" t="n">
         <v>332.79</v>
@@ -7989,7 +7989,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>337.88</v>
+        <v>338.69</v>
       </c>
       <c r="C243" t="n">
         <v>339.19</v>
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>334.21</v>
+        <v>333.48</v>
       </c>
       <c r="C244" t="n">
         <v>333.71</v>
@@ -8105,7 +8105,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>331.49</v>
+        <v>331.62</v>
       </c>
       <c r="C247" t="n">
         <v>335.61</v>
@@ -8138,7 +8138,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>336.77</v>
+        <v>336.73</v>
       </c>
       <c r="C248" t="n">
         <v>344.85</v>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>345.07</v>
+        <v>345.6</v>
       </c>
       <c r="C250" t="n">
         <v>343.41</v>
@@ -8233,7 +8233,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>334.06</v>
+        <v>333.63</v>
       </c>
       <c r="C251" t="n">
         <v>343.69</v>
@@ -8266,7 +8266,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>333.67</v>
+        <v>333.01</v>
       </c>
       <c r="C252" t="n">
         <v>344.59</v>
@@ -8322,7 +8322,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>352.24</v>
+        <v>352.45</v>
       </c>
       <c r="C254" t="n">
         <v>359.33</v>
@@ -8355,7 +8355,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>355.59</v>
+        <v>355.49</v>
       </c>
       <c r="C255" t="n">
         <v>354.87</v>
@@ -8388,7 +8388,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>344.38</v>
+        <v>344.11</v>
       </c>
       <c r="C256" t="n">
         <v>347.66</v>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>354.45</v>
+        <v>355.07</v>
       </c>
       <c r="C257" t="n">
         <v>354.28</v>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>349.28</v>
+        <v>348.98</v>
       </c>
       <c r="C258" t="n">
         <v>348.25</v>
@@ -8481,7 +8481,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>346.03</v>
+        <v>346.9</v>
       </c>
       <c r="C259" t="n">
         <v>333.37</v>
@@ -8514,7 +8514,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>352.69</v>
+        <v>353.56</v>
       </c>
       <c r="C260" t="n">
         <v>349.4</v>
@@ -8576,7 +8576,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>347.33</v>
+        <v>347.39</v>
       </c>
       <c r="C262" t="n">
         <v>346.49</v>
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>323.6</v>
+        <v>323.19</v>
       </c>
       <c r="C263" t="n">
         <v>318.58</v>
@@ -8661,7 +8661,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>313.58</v>
+        <v>314.45</v>
       </c>
       <c r="C265" t="n">
         <v>314.34</v>
@@ -8694,7 +8694,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>337.5</v>
+        <v>336.89</v>
       </c>
       <c r="C266" t="n">
         <v>339.85</v>
@@ -8725,7 +8725,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>333.65</v>
+        <v>334.25</v>
       </c>
       <c r="C267" t="n">
         <v>334.98</v>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>305.28</v>
+        <v>305.59</v>
       </c>
       <c r="C268" t="n">
         <v>311.59</v>
@@ -8785,7 +8785,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>327.01</v>
+        <v>326.97</v>
       </c>
       <c r="C269" t="n">
         <v>325.66</v>
@@ -8841,7 +8841,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>336.94</v>
+        <v>337.43</v>
       </c>
       <c r="C271" t="n">
         <v>340.67</v>
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>317.11</v>
+        <v>317.98</v>
       </c>
       <c r="C272" t="n">
         <v>327.33</v>
@@ -8903,7 +8903,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>320.65</v>
+        <v>321.03</v>
       </c>
       <c r="C273" t="n">
         <v>334.47</v>
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>313.59</v>
+        <v>314.1</v>
       </c>
       <c r="C274" t="n">
         <v>318.04</v>
@@ -8965,7 +8965,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>329.52</v>
+        <v>329.02</v>
       </c>
       <c r="C275" t="n">
         <v>331.95</v>
@@ -8988,7 +8988,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>341.16</v>
+        <v>342.02</v>
       </c>
       <c r="C276" t="n">
         <v>338.83</v>
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>343.29</v>
+        <v>342.76</v>
       </c>
       <c r="C277" t="n">
         <v>340.61</v>
@@ -9054,7 +9054,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>324.41</v>
+        <v>324.42</v>
       </c>
       <c r="C278" t="n">
         <v>320.51</v>
@@ -9087,7 +9087,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>327.26</v>
+        <v>326.99</v>
       </c>
       <c r="C279" t="n">
         <v>323.56</v>
@@ -9120,7 +9120,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>340.27</v>
+        <v>340.41</v>
       </c>
       <c r="C280" t="n">
         <v>335.29</v>
@@ -9153,7 +9153,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>324.96</v>
+        <v>325.45</v>
       </c>
       <c r="C281" t="n">
         <v>329.71</v>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>344.87</v>
+        <v>345.51</v>
       </c>
       <c r="C282" t="n">
         <v>347.87</v>
@@ -9213,7 +9213,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>331.71</v>
+        <v>331.89</v>
       </c>
       <c r="C283" t="n">
         <v>328.24</v>
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>328.9</v>
+        <v>329.6</v>
       </c>
       <c r="C284" t="n">
         <v>331.97</v>
@@ -9306,7 +9306,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>331.75</v>
+        <v>331.17</v>
       </c>
       <c r="C286" t="n">
         <v>329</v>
@@ -9339,7 +9339,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>324.9</v>
+        <v>324.88</v>
       </c>
       <c r="C287" t="n">
         <v>323.76</v>
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>323.99</v>
+        <v>324.06</v>
       </c>
       <c r="C288" t="n">
         <v>322.07</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>331.54</v>
+        <v>331.16</v>
       </c>
       <c r="C289" t="n">
         <v>331.55</v>
@@ -9438,7 +9438,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>315.46</v>
+        <v>316.28</v>
       </c>
       <c r="C290" t="n">
         <v>308.38</v>
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>329.89</v>
+        <v>329.23</v>
       </c>
       <c r="C291" t="n">
         <v>329.25</v>
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>323.9</v>
+        <v>323.8</v>
       </c>
       <c r="C292" t="n">
         <v>319.75</v>
@@ -9558,7 +9558,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>321.97</v>
+        <v>321.9</v>
       </c>
       <c r="C294" t="n">
         <v>317.54</v>
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>326.34</v>
+        <v>325.97</v>
       </c>
       <c r="C296" t="n">
         <v>319.92</v>
@@ -9645,7 +9645,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>318.55</v>
+        <v>318.96</v>
       </c>
       <c r="C297" t="n">
         <v>313.48</v>
@@ -9701,7 +9701,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>355.97</v>
+        <v>355.34</v>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="n">
@@ -9724,7 +9724,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>329.68</v>
+        <v>329.52</v>
       </c>
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr"/>
@@ -9753,7 +9753,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>353.62</v>
+        <v>354.23</v>
       </c>
       <c r="C301" t="n">
         <v>352.65</v>
@@ -9786,7 +9786,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>347.42</v>
+        <v>346.93</v>
       </c>
       <c r="C302" t="n">
         <v>349.56</v>
@@ -9819,7 +9819,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>333.46</v>
+        <v>332.84</v>
       </c>
       <c r="C303" t="n">
         <v>341.05</v>
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>340.54</v>
+        <v>341.18</v>
       </c>
       <c r="C304" t="n">
         <v>338.49</v>
@@ -9885,7 +9885,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>332.86</v>
+        <v>332.39</v>
       </c>
       <c r="C305" t="n">
         <v>332.96</v>
@@ -9918,7 +9918,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>340.49</v>
+        <v>341.13</v>
       </c>
       <c r="C306" t="n">
         <v>339.2</v>
@@ -9951,7 +9951,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>321.72</v>
+        <v>321.63</v>
       </c>
       <c r="C307" t="n">
         <v>325.82</v>
@@ -9984,7 +9984,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>322.06</v>
+        <v>322.7</v>
       </c>
       <c r="C308" t="n">
         <v>320.73</v>
@@ -10017,7 +10017,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>323.85</v>
+        <v>323.76</v>
       </c>
       <c r="C309" t="n">
         <v>319.32</v>
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>322.31</v>
+        <v>322.48</v>
       </c>
       <c r="C310" t="n">
         <v>320.62</v>
@@ -10083,7 +10083,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>328.37</v>
+        <v>327.95</v>
       </c>
       <c r="C311" t="n">
         <v>320.44</v>
@@ -10116,7 +10116,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>344.73</v>
+        <v>345.31</v>
       </c>
       <c r="C312" t="n">
         <v>345.41</v>
@@ -10149,7 +10149,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>330.98</v>
+        <v>330.21</v>
       </c>
       <c r="C313" t="n">
         <v>337.34</v>
@@ -10182,7 +10182,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>334.72</v>
+        <v>334.41</v>
       </c>
       <c r="C314" t="n">
         <v>344.63</v>
@@ -10215,7 +10215,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>329.34</v>
+        <v>329.54</v>
       </c>
       <c r="C315" t="n">
         <v>338.43</v>
@@ -10248,7 +10248,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>326.49</v>
+        <v>326.22</v>
       </c>
       <c r="C316" t="n">
         <v>322.38</v>
@@ -10281,7 +10281,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>343.69</v>
+        <v>344.22</v>
       </c>
       <c r="C317" t="n">
         <v>343.86</v>
@@ -10314,7 +10314,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>334.82</v>
+        <v>334.28</v>
       </c>
       <c r="C318" t="n">
         <v>338.42</v>
@@ -10347,7 +10347,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>340.06</v>
+        <v>340.73</v>
       </c>
       <c r="C319" t="n">
         <v>343.58</v>
@@ -10380,7 +10380,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>335.35</v>
+        <v>335.77</v>
       </c>
       <c r="C320" t="n">
         <v>339.53</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>329.86</v>
+        <v>329.69</v>
       </c>
       <c r="C321" t="n">
         <v>332.83</v>
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>329.46</v>
+        <v>329.3</v>
       </c>
       <c r="C322" t="n">
         <v>329.43</v>
@@ -10479,7 +10479,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>328.72</v>
+        <v>329.38</v>
       </c>
       <c r="C323" t="n">
         <v>336.97</v>
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>330.94</v>
+        <v>330.47</v>
       </c>
       <c r="C324" t="n">
         <v>325.05</v>
@@ -10545,7 +10545,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>323.73</v>
+        <v>324.4</v>
       </c>
       <c r="C325" t="n">
         <v>330.01</v>
@@ -10578,7 +10578,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>323.98</v>
+        <v>323.88</v>
       </c>
       <c r="C326" t="n">
         <v>322.45</v>
@@ -14271,7 +14271,7 @@
         <v>0.082</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01921293405657771</v>
+        <v>0.0209178089370877</v>
       </c>
       <c r="J2" t="n">
         <v>326</v>
@@ -14280,19 +14280,19 @@
         <v>281</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001686988067614026</v>
+        <v>0.0001982876274236878</v>
       </c>
       <c r="M2" t="n">
-        <v>8.373370779138485</v>
+        <v>8.442718128870583</v>
       </c>
       <c r="N2" t="n">
-        <v>113.8947758849026</v>
+        <v>114.8556451303483</v>
       </c>
       <c r="O2" t="n">
-        <v>10.67214954378464</v>
+        <v>10.71707260077808</v>
       </c>
       <c r="P2" t="n">
-        <v>331.5408606202975</v>
+        <v>331.5785246672777</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-45.86213470281701,170.74138933816204</t>
+          <t>-45.86213381661116,170.74139839290171</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-45.86213607581057,170.7413753096916</t>
+          <t>-45.86213503982467,170.74138589481026</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -15010,7 +15010,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-45.862166655671444,170.7410628572325</t>
+          <t>-45.86216670559705,170.74106234710578</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -15057,7 +15057,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-45.86216907706034,170.74103811608575</t>
+          <t>-45.86216977601696,170.74103097431103</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-45.862180996705334,170.74091632329873</t>
+          <t>-45.86218129625493,170.74091326253696</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -15147,7 +15147,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-45.86217104911536,170.74101796607815</t>
+          <t>-45.86217158581326,170.74101248221513</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -15194,7 +15194,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-45.86216747944351,170.74105444014154</t>
+          <t>-45.862168490435685,170.74104411007508</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -15241,7 +15241,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-45.86216766666436,170.74105252716632</t>
+          <t>-45.86216837810326,170.74104525786026</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -15288,7 +15288,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-45.86214883208583,170.7412449724179</t>
+          <t>-45.862147783630505,170.74125568507253</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -15335,7 +15335,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-45.86216413442569,170.74108861863067</t>
+          <t>-45.86216504556963,170.7410793088187</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -15382,7 +15382,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-45.8621810216678,170.74091606823524</t>
+          <t>-45.86218168317304,170.740909309053</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -15429,7 +15429,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-45.862183854904416,170.74088711852914</t>
+          <t>-45.8621843042276,170.74088252738608</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-45.86218530272291,170.74087232484572</t>
+          <t>-45.862184503926734,170.74088048687804</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -15523,7 +15523,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-45.86218296873869,170.74089617328335</t>
+          <t>-45.86218298121991,170.74089604575158</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -15570,7 +15570,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-45.86216070202728,170.74112368983768</t>
+          <t>-45.862160152842534,170.74112930123044</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -15617,7 +15617,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-45.86216777899686,170.74105137938113</t>
+          <t>-45.86216694274359,170.74105992400385</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -15664,7 +15664,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-45.8621809467804,170.74091683342567</t>
+          <t>-45.862180859411744,170.74091772614784</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-45.86217807609239,170.74094616572418</t>
+          <t>-45.86217810105493,170.74094591066074</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -15758,7 +15758,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-45.862185165429864,170.74087372769503</t>
+          <t>-45.86218525279816,170.74087283497275</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -15805,7 +15805,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-45.86218077204308,170.74091861887</t>
+          <t>-45.8621809467804,170.74091683342567</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-45.86218072211813,170.74091912899698</t>
+          <t>-45.8621808469305,170.74091785367958</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-45.86218198272246,170.74090624829117</t>
+          <t>-45.86218218242203,170.7409042077833</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -15973,7 +15973,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-45.86215418668118,170.74119026135435</t>
+          <t>-45.86215498549966,170.7411820993301</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -16020,7 +16020,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-45.86216877750737,170.74104117684627</t>
+          <t>-45.86216888983974,170.74104002906105</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-45.862153824716344,170.74119395977155</t>
+          <t>-45.86215311326791,170.74120122907416</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -16129,7 +16129,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-45.86216423427712,170.74108759837733</t>
+          <t>-45.862164646164175,170.74108338983223</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -16176,7 +16176,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-45.86216513293956,170.741078416097</t>
+          <t>-45.862165682121805,170.74107280470335</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -16223,7 +16223,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-45.86218529024172,170.74087245237746</t>
+          <t>-45.862185277760545,170.74087257990925</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-45.86215200240887,170.74121257938842</t>
+          <t>-45.86215129095924,170.74121984869058</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -16375,7 +16375,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-45.86216920187405,170.74103684076883</t>
+          <t>-45.86216978849832,170.74103084677935</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -16453,7 +16453,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-45.86216777899686,170.74105137938113</t>
+          <t>-45.86216794125487,170.74104972146927</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -16500,7 +16500,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-45.862166867855215,170.74106068919394</t>
+          <t>-45.86216695522499,170.7410597964722</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -16547,7 +16547,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-45.862169426538706,170.7410345451984</t>
+          <t>-45.862169925793324,170.74102944393073</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -16594,7 +16594,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-45.86217332071859,170.74099475530832</t>
+          <t>-45.862173408087855,170.74099386258638</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -16641,7 +16641,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-45.86215368741932,170.74119536261944</t>
+          <t>-45.86215331297278,170.74119918856817</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-45.862167679145756,170.7410523996346</t>
+          <t>-45.862168290733614,170.74104615058206</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-45.8621721599549,170.74100661575687</t>
+          <t>-45.8621725219136,170.74100291733748</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-45.862173919821956,170.74098863378634</t>
+          <t>-45.86217389485931,170.74098888884976</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -16821,7 +16821,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-45.86217942406857,170.74093239229742</t>
+          <t>-45.86217976106235,170.74092894894062</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -16868,7 +16868,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-45.86215502294426,170.7411817167352</t>
+          <t>-45.86215416171809,170.74119051641762</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -16911,7 +16911,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-45.862169638721944,170.74103237715966</t>
+          <t>-45.86216915194857,170.7410373508956</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -16950,7 +16950,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-45.86217446899974,170.74098302239108</t>
+          <t>-45.8621752428407,170.74097511542482</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -17024,7 +17024,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-45.862171598294594,170.74101235468342</t>
+          <t>-45.862170861895095,170.7410198790536</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-45.86214319038571,170.74130261669822</t>
+          <t>-45.86214249141197,170.74130975846674</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-45.86215187759318,170.7412138547046</t>
+          <t>-45.86215105380924,170.7412222717913</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -17165,7 +17165,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-45.86214718451273,170.7412618065893</t>
+          <t>-45.862147696259186,170.74125657779376</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -17251,7 +17251,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-45.86213913383541,170.74134406445964</t>
+          <t>-45.862138384932166,170.74135171635348</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -17329,7 +17329,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-45.862151128698734,170.7412215066016</t>
+          <t>-45.8621502175431,170.74123081640934</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -17372,7 +17372,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-45.862175517429286,170.74097230972708</t>
+          <t>-45.862174444037116,170.7409832774545</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -17415,7 +17415,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-45.86218647595373,170.74086033686035</t>
+          <t>-45.862186151443204,170.74086365268616</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -17477,7 +17477,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-45.86216318583667,170.74109831103738</t>
+          <t>-45.862163410502575,170.7410960154674</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -17524,7 +17524,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-45.862138547194576,170.74135005844317</t>
+          <t>-45.86213913383541,170.74134406445964</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-45.86214105601806,170.741324424598</t>
+          <t>-45.86214003251864,170.74133488218683</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -17645,7 +17645,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-45.862190058044206,170.74082373524266</t>
+          <t>-45.86218963368568,170.740828071323</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-45.86216448390566,170.74108504774392</t>
+          <t>-45.86216519534665,170.74107777843864</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -17735,7 +17735,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-45.86218658828427,170.7408591890745</t>
+          <t>-45.862186426029034,170.74086084698743</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -17762,7 +17762,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-45.86219347786869,170.74078879153396</t>
+          <t>-45.862192566748625,170.74079810135453</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -17809,7 +17809,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-45.862171061596705,170.74101783854647</t>
+          <t>-45.86217164821997,170.74101184455662</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -17856,7 +17856,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-45.862166917780804,170.74106017906723</t>
+          <t>-45.86216761673881,170.74105303729306</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -17903,7 +17903,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-45.862158517768115,170.74114600787644</t>
+          <t>-45.86215731954407,170.7411582509142</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -17946,7 +17946,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-45.862144788038286,170.7412862926553</t>
+          <t>-45.862144376143696,170.7412905011977</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -17993,7 +17993,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-45.86214939375791,170.74123923349558</t>
+          <t>-45.86214909419951,170.74124229425414</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-45.862167504406294,170.74105418507818</t>
+          <t>-45.862168228326695,170.74104678824048</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -18087,7 +18087,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-45.86217138611174,170.7410145227223</t>
+          <t>-45.862170649712105,170.74102204709246</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -18126,7 +18126,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-45.86217567968615,170.74097065181476</t>
+          <t>-45.862176216381755,170.74096516795092</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -18173,7 +18173,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-45.86215282619209,170.74120416230147</t>
+          <t>-45.86215202737201,170.74121232432518</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -18220,7 +18220,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-45.86215169036963,170.74121576767885</t>
+          <t>-45.862150417248515,170.74122877590355</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -18267,7 +18267,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-45.862161176322985,170.74111884363475</t>
+          <t>-45.862161550766814,170.74111501768505</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -18314,7 +18314,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-45.862174119523,170.740986593279</t>
+          <t>-45.86217390734063,170.74098876131805</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -18361,7 +18361,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-45.86217961128735,170.7409304793214</t>
+          <t>-45.86217883744951,170.74093838628875</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -18396,7 +18396,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-45.86218868511894,170.74083776373774</t>
+          <t>-45.862187973693345,170.7408450330486</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -18443,7 +18443,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-45.86216943902008,170.7410344176667</t>
+          <t>-45.86216911450447,170.74103773349066</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -18490,7 +18490,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-45.862169488945554,170.74103390753996</t>
+          <t>-45.86216911450447,170.74103773349066</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -18533,7 +18533,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-45.86217894978085,170.7409372385032</t>
+          <t>-45.86217906211217,170.7409360907176</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -18580,7 +18580,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-45.862158293101196,170.74114830344607</t>
+          <t>-45.86215874243497,170.74114371230684</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-45.86217948647484,170.74093175463875</t>
+          <t>-45.862180147981014,170.74092499545685</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18709,7 +18709,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-45.86216923931818,170.74103645817374</t>
+          <t>-45.86217002564422,170.7410284236772</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18791,7 +18791,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-45.86218658828427,170.7408591890745</t>
+          <t>-45.86218650091607,170.74086008179682</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18838,7 +18838,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-45.86217742706622,170.74095279737392</t>
+          <t>-45.86217617893788,170.74096555054606</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18885,7 +18885,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-45.862170212864626,170.74102651070177</t>
+          <t>-45.86216951390828,170.74103365247657</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18932,7 +18932,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-45.86214623590889,170.7412714989907</t>
+          <t>-45.8621463482436,170.7412703512063</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -18979,7 +18979,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-45.86216608152688,170.74106872368972</t>
+          <t>-45.86216540753071,170.7410756104002</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -19041,7 +19041,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-45.86216525775373,170.74107714078028</t>
+          <t>-45.86216522030949,170.74107752337528</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-45.86217123633559,170.74101605310267</t>
+          <t>-45.86217114896615,170.74101694582458</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19135,7 +19135,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-45.86217778902317,170.7409490989539</t>
+          <t>-45.862177127515544,170.7409558581353</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -19182,7 +19182,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-45.862155135278066,170.7411805689505</t>
+          <t>-45.86215387464254,170.74119344964504</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -19229,7 +19229,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-45.86217731473473,170.74095394515942</t>
+          <t>-45.86217647848882,170.74096248978478</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -19276,7 +19276,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-45.86217238461894,170.74100432018622</t>
+          <t>-45.86217209754821,170.74100725341538</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -19323,7 +19323,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-45.86217880000573,170.74093876888395</t>
+          <t>-45.862179174443476,170.74093494293203</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -19370,7 +19370,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-45.862180360162164,170.74092282741734</t>
+          <t>-45.86218113399891,170.7409149204496</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-45.86218416693442,170.74088393023538</t>
+          <t>-45.862184890843714,170.74087653339367</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -19464,7 +19464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-45.86214709714135,170.7412626993105</t>
+          <t>-45.862146011239446,170.74127379455936</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -19511,7 +19511,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-45.86216410946284,170.74108887369403</t>
+          <t>-45.86216388479709,170.74109116926405</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-45.86216379742706,170.74109206198574</t>
+          <t>-45.862163809908495,170.74109193445406</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -19605,7 +19605,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-45.8621586800275,170.74114434996505</t>
+          <t>-45.86215820573072,170.74114919616758</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-45.86217813849873,170.74094552806557</t>
+          <t>-45.862178375642806,170.74094310496272</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -19687,7 +19687,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-45.86217616645659,170.74096567807777</t>
+          <t>-45.86217677803967,170.74095942902352</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -19777,7 +19777,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-45.86217250943228,170.7410030448692</t>
+          <t>-45.86217146099981,170.7410137575321</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -19824,7 +19824,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-45.862172234842916,170.74100585056664</t>
+          <t>-45.86217278402156,170.74100023917168</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -19871,7 +19871,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-45.86216108895274,170.74111973635635</t>
+          <t>-45.862159790879694,170.74113299964833</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -19961,7 +19961,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-45.862178625268086,170.74094055432815</t>
+          <t>-45.862178375642806,170.74094310496272</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-45.8621749058455,170.74097855878114</t>
+          <t>-45.86217566720485,170.7409707793465</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -20055,7 +20055,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-45.86217440659319,170.74098366004964</t>
+          <t>-45.86217515547157,170.74097600814684</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-45.862164409017105,170.74108581293396</t>
+          <t>-45.862164159388556,170.74108836356734</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -20149,7 +20149,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-45.86217284642821,170.74099960151315</t>
+          <t>-45.86217279650288,170.74100011163998</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -20192,7 +20192,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-45.8621637350199,170.74109269964407</t>
+          <t>-45.862163148392355,170.74109869363238</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -20239,7 +20239,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-45.86221362216356,170.74058295515638</t>
+          <t>-45.8622126736178,170.7405926475787</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -20321,7 +20321,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-45.862174506443665,170.74098263979593</t>
+          <t>-45.86217491832681,170.7409784312494</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -20368,7 +20368,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-45.86218605159379,170.74086467294023</t>
+          <t>-45.86218552738423,170.7408700292741</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -20454,7 +20454,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-45.86217986091235,170.74092792868674</t>
+          <t>-45.86217958632485,170.74093073438488</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -20501,7 +20501,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-45.86218572708314,170.74086798876596</t>
+          <t>-45.86218651339725,170.7408599542651</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -20548,7 +20548,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-45.86216990083059,170.74102969899414</t>
+          <t>-45.862170487454485,170.7410237050045</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -20595,7 +20595,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-45.862180235349726,170.74092410273468</t>
+          <t>-45.862181009186564,170.74091619576697</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -20642,7 +20642,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-45.86217143603712,170.7410140125955</t>
+          <t>-45.86217227228691,170.74100546797155</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -20689,7 +20689,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-45.86217802616731,170.7409466758511</t>
+          <t>-45.86217806361112,170.74094629325592</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -20736,7 +20736,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-45.86216648093181,170.741064642676</t>
+          <t>-45.86216628122937,170.74106668318288</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -20783,7 +20783,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-45.86217841308658,170.74094272236755</t>
+          <t>-45.862179286774776,170.74093379514645</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -20830,7 +20830,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-45.86216987586786,170.74102995405752</t>
+          <t>-45.862169351650486,170.74103531038855</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -20877,7 +20877,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-45.86216043991643,170.7411263680024</t>
+          <t>-45.86216106398981,170.74111999141968</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -20924,7 +20924,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-45.862170200383254,170.74102663823345</t>
+          <t>-45.862170662193456,170.74102191956075</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -20967,7 +20967,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-45.862170499935836,170.7410235774728</t>
+          <t>-45.86217046249177,170.74102396006788</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -21014,7 +21014,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-45.86217647848882,170.74096248978478</t>
+          <t>-45.86217625382563,170.74096478535574</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -21061,7 +21061,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-45.86217277154023,170.7410003667034</t>
+          <t>-45.862172659208255,170.74100151448874</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -21108,7 +21108,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-45.862169538871015,170.7410333974132</t>
+          <t>-45.86217012549511,170.74102740342366</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -21155,7 +21155,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-45.86219403951767,170.74078305260332</t>
+          <t>-45.862192866295025,170.74079504059162</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-45.86217831323647,170.74094374262137</t>
+          <t>-45.86217861278681,170.7409406818599</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -21233,7 +21233,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-45.86217620390046,170.74096529548262</t>
+          <t>-45.8621764036011,170.74096325497513</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -21272,7 +21272,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-45.86218132121739,170.74091300747347</t>
+          <t>-45.8621809842241,170.74091645083044</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -21319,7 +21319,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-45.862172496950926,170.7410031724009</t>
+          <t>-45.862173121017406,170.74099679581562</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -21366,7 +21366,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-45.862165469937786,170.7410749727418</t>
+          <t>-45.8621653950493,170.74107573793185</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -21413,7 +21413,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-45.86217543006019,170.74097320244908</t>
+          <t>-45.86217620390046,170.74096529548262</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -21460,7 +21460,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-45.862169289243646,170.741035948047</t>
+          <t>-45.86216877750737,170.74104117684627</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -21507,7 +21507,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-45.86217230973093,170.74100508537643</t>
+          <t>-45.862172858909524,170.74099947398145</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -21550,7 +21550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-45.86217765172917,170.7409505018029</t>
+          <t>-45.86217757684152,170.74095126699322</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -21597,7 +21597,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-45.86218824827871,170.7408422273497</t>
+          <t>-45.86218758677748,170.74084898653336</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -21644,7 +21644,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-45.862183006182335,170.74089579068809</t>
+          <t>-45.86218348046828,170.74089094448166</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -21683,7 +21683,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-45.86217887489328,170.74093800369357</t>
+          <t>-45.86217766421044,170.74095037427114</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -21730,7 +21730,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-45.86217433170532,170.7409844252399</t>
+          <t>-45.86217453140629,170.7409823847325</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -21777,7 +21777,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-45.862172234842916,170.74100585056664</t>
+          <t>-45.862172933797495,170.74099870879124</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -21824,7 +21824,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-45.86220333788625,170.7406880414032</t>
+          <t>-45.862202838647015,170.74069314267638</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -21871,7 +21871,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-45.86217614149401,170.7409659331412</t>
+          <t>-45.86217671563324,170.7409600666821</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -21918,7 +21918,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-45.86217823834887,170.74094450781175</t>
+          <t>-45.86217828827393,170.74094399768484</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -21965,7 +21965,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-45.86219118134541,170.74081225738257</t>
+          <t>-45.86219063217608,170.74081786878088</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -22012,7 +22012,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-45.86218054738079,170.7409209144413</t>
+          <t>-45.86218109655521,170.7409153030448</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -22051,7 +22051,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-45.862190395034695,170.74082029188466</t>
+          <t>-45.86218935910065,170.74083087702203</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -22098,7 +22098,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-45.86216912698583,170.74103760595898</t>
+          <t>-45.86216990083059,170.74102969899414</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -22137,7 +22137,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-45.86218882241154,170.74083636088827</t>
+          <t>-45.8621878738441,170.74084605330273</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -22184,7 +22184,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-45.86218839805252,170.74084069696846</t>
+          <t>-45.86218768662674,170.74084796627923</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -22254,7 +22254,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-45.862194813344665,170.74077514563206</t>
+          <t>-45.862194201771764,170.74078139469</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -22332,7 +22332,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-45.862161176322985,170.74111884363475</t>
+          <t>-45.862160427434944,170.74112649553408</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -22375,7 +22375,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-45.86216794125487,170.74104972146927</t>
+          <t>-45.862168690137736,170.7410420695681</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -22422,7 +22422,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-45.86215206481672,170.74121194173034</t>
+          <t>-45.86215129095924,170.74121984869058</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -22469,7 +22469,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-45.86218535264765,170.7408718147187</t>
+          <t>-45.86218472858822,170.74087819130648</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-45.86216553234485,170.74107433508343</t>
+          <t>-45.86216629371078,170.74106655565117</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -22563,7 +22563,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-45.86217319590535,170.74099603062538</t>
+          <t>-45.86217399470985,170.74098786859608</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -22610,7 +22610,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-45.86217415696693,170.74098621068384</t>
+          <t>-45.86217470614461,170.74098059928852</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -22657,7 +22657,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-45.86217002564422,170.7410284236772</t>
+          <t>-45.862170687156166,170.74102166449737</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -22704,7 +22704,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-45.86215673291304,170.74116424490126</t>
+          <t>-45.862156108837155,170.7411706214831</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -22751,7 +22751,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-45.86215496053659,170.74118235439337</t>
+          <t>-45.862154910610464,170.74118286451989</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -22798,7 +22798,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-45.86215680780212,170.74116347971142</t>
+          <t>-45.86215642087515,170.74116743319217</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -22883,7 +22883,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-45.862157743915226,170.74115391483838</t>
+          <t>-45.86215704495086,170.74116105661028</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -22930,7 +22930,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-45.862177402103676,170.74095305243736</t>
+          <t>-45.862177514435146,170.74095190465184</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -22977,7 +22977,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-45.8621906446572,170.7408177412491</t>
+          <t>-45.86218978345929,170.74082654094173</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -23024,7 +23024,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-45.86215704495086,170.74116105661028</t>
+          <t>-45.862157406914605,170.7411573581927</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -23071,7 +23071,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-45.86216655582024,170.74106387748594</t>
+          <t>-45.862165345123636,170.74107624805856</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -23235,7 +23235,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-45.86217681548352,170.74095904642832</t>
+          <t>-45.862176228863056,170.74096504041918</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -23282,7 +23282,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-45.862173170942704,170.7409962856888</t>
+          <t>-45.86217353290107,170.74099258726932</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -23325,7 +23325,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-45.862180522418306,170.74092116950476</t>
+          <t>-45.86218057234325,170.7409206593778</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -23372,7 +23372,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-45.86217815097999,170.74094540053383</t>
+          <t>-45.86217795127968,170.74094744104144</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -23407,7 +23407,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-45.862179798506105,170.74092856634542</t>
+          <t>-45.86217971113736,170.74092945906756</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -23493,7 +23493,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-45.862155072870394,170.74118120660867</t>
+          <t>-45.86215424908888,170.74118962369621</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -23540,7 +23540,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-45.86217546750409,170.74097281985397</t>
+          <t>-45.86217501817725,170.7409774109957</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -23587,7 +23587,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-45.8621586800275,170.74114434996505</t>
+          <t>-45.862159229213,170.74113873857257</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -23618,7 +23618,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-45.86214929390512,170.74124025374843</t>
+          <t>-45.86214983061377,170.74123476988927</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-45.86216887735837,170.74104015659276</t>
+          <t>-45.86216898969073,170.74103900880758</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -23751,7 +23751,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-45.86215379975326,170.7411942148348</t>
+          <t>-45.86215438638585,170.7411882208483</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -23798,7 +23798,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-45.862173919821956,170.74098863378634</t>
+          <t>-45.862173121017406,170.74099679581562</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -23829,7 +23829,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-45.862157332025554,170.74115812338255</t>
+          <t>-45.86215809339723,170.74115034395237</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-45.862151340885546,170.74121933856412</t>
+          <t>-45.8621504297301,170.74122864837193</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -23895,7 +23895,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-45.86216520782806,170.741077650907</t>
+          <t>-45.862164533831354,170.74108453761724</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -23973,7 +23973,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-45.86216636859919,170.7410657904611</t>
+          <t>-45.8621663810806,170.74106566292946</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -23996,7 +23996,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-45.862161700544306,170.74111348730514</t>
+          <t>-45.86216190024761,170.74111144679858</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -24043,7 +24043,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-45.86213491500703,170.74138717012573</t>
+          <t>-45.8621344656634,170.74139176126144</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -24086,7 +24086,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-45.86215358756692,170.74119638287243</t>
+          <t>-45.862154174199624,170.741190388886</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -24164,7 +24164,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-45.86216191272906,170.74111131926693</t>
+          <t>-45.86216243695003,170.74110596293718</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -24211,7 +24211,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-45.86216796621765,170.74104946640588</t>
+          <t>-45.86216880247013,170.74104092178288</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -24258,7 +24258,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-45.86216303605937,170.74109984141737</t>
+          <t>-45.86216241198713,170.7411062180005</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -24293,7 +24293,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-45.86217476855115,170.74097996162996</t>
+          <t>-45.86217543006019,170.74097320244908</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -24340,7 +24340,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-45.86217284642821,170.74099960151315</t>
+          <t>-45.86217242206293,170.7410039375911</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -24375,7 +24375,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-45.86215806843423,170.74115059901567</t>
+          <t>-45.862158230693716,170.74114894110429</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -24398,7 +24398,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-45.862159166805576,170.74113937623082</t>
+          <t>-45.862159129361125,170.74113975882577</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -24445,7 +24445,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-45.8621611388786,170.74111922622973</t>
+          <t>-45.86216197513633,170.74111068160863</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -24570,7 +24570,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-45.862135564058626,170.74138053848517</t>
+          <t>-45.86213452807224,170.7413911236037</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -24675,7 +24675,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-45.86216832817775,170.741045767987</t>
+          <t>-45.86216898969073,170.74103900880758</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -24722,7 +24722,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-45.86216760425742,170.74105316482473</t>
+          <t>-45.86216701763199,170.74105915881378</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -24757,7 +24757,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-45.86215423660735,170.74118975122786</t>
+          <t>-45.862153824716344,170.74119395977155</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -24804,7 +24804,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-45.862146023721074,170.74127366702777</t>
+          <t>-45.8621458989047,170.74127494234372</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -24843,7 +24843,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-45.86214752151652,170.74125836323614</t>
+          <t>-45.86214760888785,170.74125747051494</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -24878,7 +24878,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-45.86214307805067,170.74130376448247</t>
+          <t>-45.862143801987365,170.74129636765065</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -24913,7 +24913,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-45.862160389990535,170.74112687812902</t>
+          <t>-45.862159229213,170.74113873857257</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -24960,7 +24960,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-45.86216533264223,170.7410763755902</t>
+          <t>-45.862164546312776,170.7410844100856</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -24991,7 +24991,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-45.86215313823102,170.7412009740109</t>
+          <t>-45.86215238933743,170.7412086259082</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -25038,7 +25038,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-45.862153649974665,170.7411957452143</t>
+          <t>-45.862152951007666,170.74120288698526</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -25124,7 +25124,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-45.86217547998539,170.74097269232223</t>
+          <t>-45.862175779536514,170.74096963156103</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -25151,7 +25151,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-45.86218011053728,170.74092537805203</t>
+          <t>-45.86217948647484,170.74093175463875</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -25198,7 +25198,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-45.86217178551473,170.7410104417079</t>
+          <t>-45.86217227228691,170.74100546797155</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -25245,7 +25245,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-45.862171136484804,170.7410170733563</t>
+          <t>-45.86217177303339,170.74101056923962</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -25292,7 +25292,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-45.86216097661957,170.74112088414128</t>
+          <t>-45.8621599656204,170.7411312142052</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -25339,7 +25339,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-45.862165557307684,170.7410740800201</t>
+          <t>-45.862166468450425,170.74106477020771</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -25448,7 +25448,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-45.86216895224661,170.7410393914026</t>
+          <t>-45.86216878998874,170.7410410493146</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -25495,7 +25495,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-45.862162362061326,170.74110672812714</t>
+          <t>-45.86216241198713,170.7411062180005</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -25581,7 +25581,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-45.86215200240887,170.74121257938842</t>
+          <t>-45.862151340885546,170.74121933856412</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -25628,7 +25628,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-45.862165744528845,170.74107216704496</t>
+          <t>-45.86216628122937,170.74106668318288</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -25675,7 +25675,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-45.86216623130376,170.74106719330956</t>
+          <t>-45.86216705507616,170.74105877621875</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -25749,7 +25749,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-45.86214305308733,170.74130401954562</t>
+          <t>-45.862142790972186,170.74130669770884</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -25796,7 +25796,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-45.862138871719345,170.7413467426225</t>
+          <t>-45.86213899653654,170.74134546730687</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -25843,7 +25843,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-45.86215286363676,170.7412037797066</t>
+          <t>-45.8621532006388,170.7412003363528</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -25890,7 +25890,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-45.86214029463444,170.74133220402388</t>
+          <t>-45.862139520768565,170.7413401109811</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -25925,7 +25925,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-45.86214674765581,170.74126627019524</t>
+          <t>-45.8621471221046,170.74126244424733</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -25972,7 +25972,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-45.86215080417763,170.74122482242356</t>
+          <t>-45.86214971827943,170.74123591767375</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -26019,7 +26019,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-45.86214249141197,170.74130975846674</t>
+          <t>-45.862141405505454,170.74132085371394</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -26105,7 +26105,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-45.86214918157072,170.7412414015329</t>
+          <t>-45.86214910668111,170.74124216672254</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -26148,7 +26148,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-45.86217880000573,170.74093876888395</t>
+          <t>-45.862179311737286,170.74093354008298</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -26218,7 +26218,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-45.86219130615658,170.74081098206474</t>
+          <t>-45.8621902202989,170.74082207732954</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-45.862161450915146,170.74111603793833</t>
+          <t>-45.86216221228393,170.74110825850707</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -26308,7 +26308,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-45.862166256266555,170.7410669382462</t>
+          <t>-45.86216550738203,170.74107459014678</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-45.86220166543388,170.74070513066812</t>
+          <t>-45.862201278522896,170.74070908415467</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -26390,7 +26390,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-45.86217454388759,170.7409822572008</t>
+          <t>-45.86217459381283,170.74098174707396</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -26464,7 +26464,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-45.86216214987667,170.7411088961654</t>
+          <t>-45.86216153828536,170.7411151452167</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -26507,7 +26507,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-45.86218690031348,170.74085600078044</t>
+          <t>-45.8621858144514,170.74086709604364</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -26550,7 +26550,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-45.8621824819713,170.74090114702145</t>
+          <t>-45.86218200768492,170.7409059932277</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -26589,7 +26589,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-45.862191293675465,170.7408111095965</t>
+          <t>-45.862190657138335,170.74081761371733</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -26636,7 +26636,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-45.862171411074435,170.7410142676589</t>
+          <t>-45.86217203514152,170.74100789107388</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -26663,7 +26663,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-45.86215688269121,170.74116271452158</t>
+          <t>-45.86215580928061,170.74117368224233</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -26710,7 +26710,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-45.862154224125796,170.74118987875949</t>
+          <t>-45.862154885647385,170.74118311958316</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -26757,7 +26757,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-45.86217778902317,170.7409490989539</t>
+          <t>-45.8621777765419,170.7409492264856</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -26804,7 +26804,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-45.86217423185482,170.7409854454936</t>
+          <t>-45.86217456885021,170.74098200213737</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -26851,7 +26851,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-45.86215799354524,170.74115136420554</t>
+          <t>-45.862157818804235,170.74115314964854</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -26898,7 +26898,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-45.86217710255299,170.7409561131987</t>
+          <t>-45.8621764909701,170.74096236225307</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -26945,7 +26945,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-45.86215225204022,170.74121002875603</t>
+          <t>-45.862151453219724,170.7412181907796</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -26980,7 +26980,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-45.86216867765636,170.74104219709977</t>
+          <t>-45.86216845299155,170.74104449267014</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -27027,7 +27027,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-45.86217218491757,170.74100636069346</t>
+          <t>-45.86217131122366,170.7410152879125</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -27109,7 +27109,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-45.86216862773086,170.7410427072265</t>
+          <t>-45.862169351650486,170.74103531038855</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -27156,7 +27156,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-45.86217717744068,170.74095534800838</t>
+          <t>-45.86217720240323,170.74095509294494</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -27203,7 +27203,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-45.86217831323647,170.74094374262137</t>
+          <t>-45.8621782258676,170.74094463534345</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-45.86216888983974,170.74104002906105</t>
+          <t>-45.86216936413187,170.74103518285688</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -27297,7 +27297,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-45.86218895970413,170.74083495803876</t>
+          <t>-45.86218793624988,170.7408454156439</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -27344,7 +27344,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-45.86217094926456,170.74101898633174</t>
+          <t>-45.86217177303339,170.74101056923962</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -27391,7 +27391,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-45.862178425567855,170.74094259483584</t>
+          <t>-45.86217855038049,170.74094131951856</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -27461,7 +27461,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-45.86218083444926,170.74091798121134</t>
+          <t>-45.86218092181792,170.74091708848914</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -27531,7 +27531,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-45.86217538013501,170.74097371257596</t>
+          <t>-45.86217584194299,170.74096899390244</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -27578,7 +27578,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-45.862185103023926,170.74087436535382</t>
+          <t>-45.8621845912951,170.74087959415576</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -27652,7 +27652,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-45.8621383974139,170.7413515888219</t>
+          <t>-45.86213918376228,170.74134355433338</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -27679,7 +27679,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-45.862171211372896,170.74101630816608</t>
+          <t>-45.862171411074435,170.7410142676589</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -27718,7 +27718,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-45.8621413306153,170.74132161890336</t>
+          <t>-45.86214056923187,170.7413293983293</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -27765,7 +27765,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>-45.86214906923631,170.74124254931735</t>
+          <t>-45.86214968083464,170.74123630026858</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -27812,7 +27812,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-45.862166493413234,170.74106451514433</t>
+          <t>-45.86216726725987,170.74105660818017</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -27859,7 +27859,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-45.86215765654469,170.74115480755987</t>
+          <t>-45.86215685772819,170.74116296958488</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -27906,7 +27906,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-45.86216724229708,170.74105686324353</t>
+          <t>-45.86216782892241,170.74105086925442</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -27953,7 +27953,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-45.86215771895222,170.74115416990168</t>
+          <t>-45.86215692013573,170.74116233192666</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -28000,7 +28000,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-45.86218114648014,170.74091479291783</t>
+          <t>-45.86218125881125,170.7409136451322</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -28047,7 +28047,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-45.86218072211813,170.74091912899698</t>
+          <t>-45.86217992331858,170.74092729102807</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -28094,7 +28094,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-45.86217848797418,170.7409419571772</t>
+          <t>-45.86217860030555,170.74094080939162</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -28141,7 +28141,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-45.862180410087134,170.74092231729037</t>
+          <t>-45.86218019790599,170.7409244853299</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -28188,7 +28188,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-45.86217284642821,170.74099960151315</t>
+          <t>-45.86217337064388,170.7409942451815</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -28235,7 +28235,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-45.86215242678212,170.74120824331337</t>
+          <t>-45.86215170285119,170.74121564014726</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -28282,7 +28282,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-45.86216958879648,170.74103288728642</t>
+          <t>-45.86217054986127,170.74102306734602</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -28329,7 +28329,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-45.86216492075544,170.74108058413543</t>
+          <t>-45.86216530767939,170.7410766306536</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -28376,7 +28376,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-45.86217163573862,170.7410119720883</t>
+          <t>-45.86217138611174,170.7410145227223</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -28423,7 +28423,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-45.862175192915494,170.7409756255517</t>
+          <t>-45.86217552991059,170.74097218219538</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -28470,7 +28470,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>-45.86215372486397,170.74119498002455</t>
+          <t>-45.86215306334169,170.74120173920065</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -28517,7 +28517,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-45.86216479594123,170.74108185945215</t>
+          <t>-45.862165469937786,170.7410749727418</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -28564,7 +28564,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-45.8621582556567,170.74114868604102</t>
+          <t>-45.86215741939612,170.74115723066106</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -28611,7 +28611,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>-45.86216413442569,170.74108861863067</t>
+          <t>-45.86216361020555,170.74109397496073</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -28658,7 +28658,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-45.862170986708605,170.74101860373665</t>
+          <t>-45.86217119889154,170.7410164356978</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -28705,7 +28705,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-45.862171485962506,170.74101350246872</t>
+          <t>-45.86217168566399,170.7410114619615</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -28752,7 +28752,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-45.86217240958161,170.7410040651228</t>
+          <t>-45.86217158581326,170.74101248221513</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -28799,7 +28799,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-45.862169638721944,170.74103237715966</t>
+          <t>-45.86217022534598,170.74102638317007</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -28846,7 +28846,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-45.86217863774934,170.74094042679644</t>
+          <t>-45.862177801504444,170.74094897142217</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -28893,7 +28893,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-45.862178325717736,170.74094361508966</t>
+          <t>-45.86217845053038,170.74094233977237</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
